--- a/hardware/MUR_Hardware_Design_File.xlsx
+++ b/hardware/MUR_Hardware_Design_File.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/smayberry8_gatech_edu/Documents/Georgia Tech/Projects/MUR/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E206D3C-9137-43EC-ABFB-1CB916EE4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1E206D3C-9137-43EC-ABFB-1CB916EE4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E92CA9B-9396-482F-941A-2CFC6E12ADE7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
-    <sheet name="Compute Module PCB" sheetId="3" r:id="rId3"/>
-    <sheet name="Battery Fuselage PCB" sheetId="5" r:id="rId4"/>
-    <sheet name="ESC to Thruster PCB" sheetId="4" r:id="rId5"/>
+    <sheet name="Compute Module PCB" sheetId="3" r:id="rId2"/>
+    <sheet name="Battery Fuselage PCB" sheetId="5" r:id="rId3"/>
+    <sheet name="ESC to Thruster PCB" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2790,16 +2789,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3107,7 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3118,7 +3116,7 @@
     <col min="6" max="6" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3132,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4884,23 +4882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38868A66-5E5D-48A4-A637-5F0AA5B0BEDE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73544836-9098-42E3-A855-8549557FE946}">
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,32 +4894,32 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7869,6 +7855,1972 @@
       </c>
       <c r="I103">
         <v>0.221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCEDD95-CEB1-49A8-9F61-C4B2069B2008}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J2">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J3">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" t="s">
+        <v>568</v>
+      </c>
+      <c r="H5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" t="s">
+        <v>569</v>
+      </c>
+      <c r="J5">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>782</v>
+      </c>
+      <c r="G6" t="s">
+        <v>672</v>
+      </c>
+      <c r="H6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" t="s">
+        <v>783</v>
+      </c>
+      <c r="J6">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D7" t="s">
+        <v>790</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>788</v>
+      </c>
+      <c r="G7" t="s">
+        <v>791</v>
+      </c>
+      <c r="H7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" t="s">
+        <v>792</v>
+      </c>
+      <c r="J7">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>793</v>
+      </c>
+      <c r="D8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" t="s">
+        <v>587</v>
+      </c>
+      <c r="J8">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D9" t="s">
+        <v>657</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>658</v>
+      </c>
+      <c r="G9" t="s">
+        <v>795</v>
+      </c>
+      <c r="H9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" t="s">
+        <v>660</v>
+      </c>
+      <c r="J9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G10" t="s">
+        <v>554</v>
+      </c>
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" t="s">
+        <v>555</v>
+      </c>
+      <c r="J10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C12" t="s">
+        <v>799</v>
+      </c>
+      <c r="D12" t="s">
+        <v>800</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" t="s">
+        <v>801</v>
+      </c>
+      <c r="J12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>802</v>
+      </c>
+      <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" t="s">
+        <v>339</v>
+      </c>
+      <c r="J13">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>805</v>
+      </c>
+      <c r="G15" t="s">
+        <v>806</v>
+      </c>
+      <c r="H15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" t="s">
+        <v>807</v>
+      </c>
+      <c r="J15">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" t="s">
+        <v>808</v>
+      </c>
+      <c r="D16" t="s">
+        <v>657</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G16" t="s">
+        <v>659</v>
+      </c>
+      <c r="H16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" t="s">
+        <v>660</v>
+      </c>
+      <c r="J16">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" t="s">
+        <v>810</v>
+      </c>
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>663</v>
+      </c>
+      <c r="G18" t="s">
+        <v>380</v>
+      </c>
+      <c r="H18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" t="s">
+        <v>664</v>
+      </c>
+      <c r="J18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D19" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>625</v>
+      </c>
+      <c r="C20" t="s">
+        <v>811</v>
+      </c>
+      <c r="D20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>679</v>
+      </c>
+      <c r="G20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" t="s">
+        <v>680</v>
+      </c>
+      <c r="J20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21" t="s">
+        <v>812</v>
+      </c>
+      <c r="D21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>676</v>
+      </c>
+      <c r="G21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H21" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" t="s">
+        <v>677</v>
+      </c>
+      <c r="J21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>685</v>
+      </c>
+      <c r="G22" t="s">
+        <v>688</v>
+      </c>
+      <c r="H22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" t="s">
+        <v>689</v>
+      </c>
+      <c r="J22">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" t="s">
+        <v>813</v>
+      </c>
+      <c r="D23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" t="s">
+        <v>381</v>
+      </c>
+      <c r="J23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
+        <v>814</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" t="s">
+        <v>415</v>
+      </c>
+      <c r="J24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>665</v>
+      </c>
+      <c r="C25" t="s">
+        <v>815</v>
+      </c>
+      <c r="D25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>667</v>
+      </c>
+      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" t="s">
+        <v>668</v>
+      </c>
+      <c r="J25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" t="s">
+        <v>816</v>
+      </c>
+      <c r="D26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" t="s">
+        <v>513</v>
+      </c>
+      <c r="J26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" t="s">
+        <v>817</v>
+      </c>
+      <c r="D27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>683</v>
+      </c>
+      <c r="G27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>700</v>
+      </c>
+      <c r="C28" t="s">
+        <v>818</v>
+      </c>
+      <c r="D28" t="s">
+        <v>702</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>700</v>
+      </c>
+      <c r="G28" t="s">
+        <v>693</v>
+      </c>
+      <c r="H28" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" t="s">
+        <v>703</v>
+      </c>
+      <c r="J28">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>695</v>
+      </c>
+      <c r="C29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>695</v>
+      </c>
+      <c r="G29" t="s">
+        <v>698</v>
+      </c>
+      <c r="H29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" t="s">
+        <v>699</v>
+      </c>
+      <c r="J29">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>690</v>
+      </c>
+      <c r="C30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D30" t="s">
+        <v>692</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>690</v>
+      </c>
+      <c r="G30" t="s">
+        <v>693</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I30" t="s">
+        <v>694</v>
+      </c>
+      <c r="J30">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" t="s">
+        <v>705</v>
+      </c>
+      <c r="D31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>704</v>
+      </c>
+      <c r="G31" t="s">
+        <v>707</v>
+      </c>
+      <c r="H31" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" t="s">
+        <v>708</v>
+      </c>
+      <c r="J31">
+        <v>2.7090000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>819</v>
+      </c>
+      <c r="C32" t="s">
+        <v>820</v>
+      </c>
+      <c r="D32" t="s">
+        <v>821</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>822</v>
+      </c>
+      <c r="G32" t="s">
+        <v>823</v>
+      </c>
+      <c r="H32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I32" t="s">
+        <v>824</v>
+      </c>
+      <c r="J32">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>825</v>
+      </c>
+      <c r="C33" t="s">
+        <v>826</v>
+      </c>
+      <c r="D33" t="s">
+        <v>827</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>825</v>
+      </c>
+      <c r="G33" t="s">
+        <v>828</v>
+      </c>
+      <c r="H33" t="s">
+        <v>285</v>
+      </c>
+      <c r="I33" t="s">
+        <v>829</v>
+      </c>
+      <c r="J33">
+        <v>1.5469999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>830</v>
+      </c>
+      <c r="C34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" t="s">
+        <v>832</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" t="s">
+        <v>833</v>
+      </c>
+      <c r="J34">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" t="s">
+        <v>835</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" t="s">
+        <v>836</v>
+      </c>
+      <c r="J35">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C36" t="s">
+        <v>838</v>
+      </c>
+      <c r="D36" t="s">
+        <v>839</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>285</v>
+      </c>
+      <c r="I36" t="s">
+        <v>840</v>
+      </c>
+      <c r="J36">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+      <c r="H37" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D39" t="s">
+        <v>590</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>591</v>
+      </c>
+      <c r="G39" t="s">
+        <v>592</v>
+      </c>
+      <c r="H39" t="s">
+        <v>285</v>
+      </c>
+      <c r="I39" t="s">
+        <v>593</v>
+      </c>
+      <c r="J39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>594</v>
+      </c>
+      <c r="C40" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G40" t="s">
+        <v>323</v>
+      </c>
+      <c r="H40" t="s">
+        <v>285</v>
+      </c>
+      <c r="I40" t="s">
+        <v>597</v>
+      </c>
+      <c r="J40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" t="s">
+        <v>843</v>
+      </c>
+      <c r="D41" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" t="s">
+        <v>285</v>
+      </c>
+      <c r="I41" t="s">
+        <v>550</v>
+      </c>
+      <c r="J41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>556</v>
+      </c>
+      <c r="C42" t="s">
+        <v>844</v>
+      </c>
+      <c r="D42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>558</v>
+      </c>
+      <c r="G42" t="s">
+        <v>323</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>559</v>
+      </c>
+      <c r="J42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>560</v>
+      </c>
+      <c r="C43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D43" t="s">
+        <v>562</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>560</v>
+      </c>
+      <c r="G43" t="s">
+        <v>563</v>
+      </c>
+      <c r="H43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I43" t="s">
+        <v>564</v>
+      </c>
+      <c r="J43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" t="s">
+        <v>845</v>
+      </c>
+      <c r="D44" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" t="s">
+        <v>431</v>
+      </c>
+      <c r="J44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" t="s">
+        <v>846</v>
+      </c>
+      <c r="D45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" t="s">
+        <v>285</v>
+      </c>
+      <c r="I45" t="s">
+        <v>411</v>
+      </c>
+      <c r="J45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" t="s">
+        <v>847</v>
+      </c>
+      <c r="D46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>426</v>
+      </c>
+      <c r="G46" t="s">
+        <v>380</v>
+      </c>
+      <c r="H46" t="s">
+        <v>285</v>
+      </c>
+      <c r="I46" t="s">
+        <v>427</v>
+      </c>
+      <c r="J46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" t="s">
+        <v>848</v>
+      </c>
+      <c r="D47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>422</v>
+      </c>
+      <c r="H47" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" t="s">
+        <v>423</v>
+      </c>
+      <c r="J47">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" t="s">
+        <v>849</v>
+      </c>
+      <c r="D48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>380</v>
+      </c>
+      <c r="H48" t="s">
+        <v>285</v>
+      </c>
+      <c r="I48" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>850</v>
+      </c>
+      <c r="D49" t="s">
+        <v>353</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" t="s">
+        <v>851</v>
+      </c>
+      <c r="D50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>852</v>
+      </c>
+      <c r="C51" t="s">
+        <v>622</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>853</v>
+      </c>
+      <c r="G51" t="s">
+        <v>297</v>
+      </c>
+      <c r="H51" t="s">
+        <v>285</v>
+      </c>
+      <c r="I51" t="s">
+        <v>854</v>
+      </c>
+      <c r="J51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>451</v>
+      </c>
+      <c r="C52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>451</v>
+      </c>
+      <c r="G52" t="s">
+        <v>454</v>
+      </c>
+      <c r="H52" t="s">
+        <v>285</v>
+      </c>
+      <c r="I52" t="s">
+        <v>455</v>
+      </c>
+      <c r="J52">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" t="s">
+        <v>855</v>
+      </c>
+      <c r="D53" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" t="s">
+        <v>374</v>
+      </c>
+      <c r="H53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>446</v>
+      </c>
+      <c r="C54" t="s">
+        <v>856</v>
+      </c>
+      <c r="D54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>448</v>
+      </c>
+      <c r="G54" t="s">
+        <v>449</v>
+      </c>
+      <c r="H54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" t="s">
+        <v>857</v>
+      </c>
+      <c r="D55" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C56" t="s">
+        <v>858</v>
+      </c>
+      <c r="D56" t="s">
+        <v>439</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" t="s">
+        <v>859</v>
+      </c>
+      <c r="D57" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>297</v>
+      </c>
+      <c r="H57" t="s">
+        <v>285</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" t="s">
+        <v>860</v>
+      </c>
+      <c r="D58" t="s">
+        <v>458</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>459</v>
+      </c>
+      <c r="H58" t="s">
+        <v>285</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58">
+        <v>3.1880000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>861</v>
+      </c>
+      <c r="C59" t="s">
+        <v>862</v>
+      </c>
+      <c r="D59" t="s">
+        <v>863</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>861</v>
+      </c>
+      <c r="G59" t="s">
+        <v>672</v>
+      </c>
+      <c r="H59" t="s">
+        <v>285</v>
+      </c>
+      <c r="I59" t="s">
+        <v>864</v>
+      </c>
+      <c r="J59">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" t="s">
+        <v>385</v>
+      </c>
+      <c r="H60" t="s">
+        <v>285</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" t="s">
+        <v>865</v>
+      </c>
+      <c r="D61" t="s">
+        <v>389</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>390</v>
+      </c>
+      <c r="H61" t="s">
+        <v>285</v>
+      </c>
+      <c r="I61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J61">
+        <v>2.996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>866</v>
+      </c>
+      <c r="C62" t="s">
+        <v>867</v>
+      </c>
+      <c r="D62" t="s">
+        <v>868</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>869</v>
+      </c>
+      <c r="G62" t="s">
+        <v>724</v>
+      </c>
+      <c r="H62" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -7877,2010 +9829,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCEDD95-CEB1-49A8-9F61-C4B2069B2008}">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C661D0EB-63D3-4AAE-B9E3-3CE984983206}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" t="s">
-        <v>517</v>
-      </c>
-      <c r="J2">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C3" t="s">
-        <v>785</v>
-      </c>
-      <c r="D3" t="s">
-        <v>763</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>761</v>
-      </c>
-      <c r="G3" t="s">
-        <v>712</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" t="s">
-        <v>764</v>
-      </c>
-      <c r="J3">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" t="s">
-        <v>786</v>
-      </c>
-      <c r="D4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>565</v>
-      </c>
-      <c r="G5" t="s">
-        <v>568</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" t="s">
-        <v>569</v>
-      </c>
-      <c r="J5">
-        <v>1.4770000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D6" t="s">
-        <v>781</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>782</v>
-      </c>
-      <c r="G6" t="s">
-        <v>672</v>
-      </c>
-      <c r="H6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" t="s">
-        <v>783</v>
-      </c>
-      <c r="J6">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>788</v>
-      </c>
-      <c r="C7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D7" t="s">
-        <v>790</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>788</v>
-      </c>
-      <c r="G7" t="s">
-        <v>791</v>
-      </c>
-      <c r="H7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" t="s">
-        <v>792</v>
-      </c>
-      <c r="J7">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8" t="s">
-        <v>793</v>
-      </c>
-      <c r="D8" t="s">
-        <v>586</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>584</v>
-      </c>
-      <c r="G8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" t="s">
-        <v>587</v>
-      </c>
-      <c r="J8">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C9" t="s">
-        <v>794</v>
-      </c>
-      <c r="D9" t="s">
-        <v>657</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>658</v>
-      </c>
-      <c r="G9" t="s">
-        <v>795</v>
-      </c>
-      <c r="H9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" t="s">
-        <v>660</v>
-      </c>
-      <c r="J9">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C10" t="s">
-        <v>796</v>
-      </c>
-      <c r="D10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>553</v>
-      </c>
-      <c r="G10" t="s">
-        <v>554</v>
-      </c>
-      <c r="H10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I10" t="s">
-        <v>555</v>
-      </c>
-      <c r="J10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C11" t="s">
-        <v>797</v>
-      </c>
-      <c r="D11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" t="s">
-        <v>482</v>
-      </c>
-      <c r="J11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>798</v>
-      </c>
-      <c r="C12" t="s">
-        <v>799</v>
-      </c>
-      <c r="D12" t="s">
-        <v>800</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" t="s">
-        <v>801</v>
-      </c>
-      <c r="J12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C13" t="s">
-        <v>802</v>
-      </c>
-      <c r="D13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" t="s">
-        <v>339</v>
-      </c>
-      <c r="J13">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G14" t="s">
-        <v>359</v>
-      </c>
-      <c r="H14" t="s">
-        <v>285</v>
-      </c>
-      <c r="I14" t="s">
-        <v>360</v>
-      </c>
-      <c r="J14">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" t="s">
-        <v>804</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>805</v>
-      </c>
-      <c r="G15" t="s">
-        <v>806</v>
-      </c>
-      <c r="H15" t="s">
-        <v>285</v>
-      </c>
-      <c r="I15" t="s">
-        <v>807</v>
-      </c>
-      <c r="J15">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>655</v>
-      </c>
-      <c r="C16" t="s">
-        <v>808</v>
-      </c>
-      <c r="D16" t="s">
-        <v>657</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G16" t="s">
-        <v>659</v>
-      </c>
-      <c r="H16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I16" t="s">
-        <v>660</v>
-      </c>
-      <c r="J16">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17" t="s">
-        <v>809</v>
-      </c>
-      <c r="D17" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>528</v>
-      </c>
-      <c r="G17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" t="s">
-        <v>529</v>
-      </c>
-      <c r="J17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>661</v>
-      </c>
-      <c r="C18" t="s">
-        <v>810</v>
-      </c>
-      <c r="D18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>663</v>
-      </c>
-      <c r="G18" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" t="s">
-        <v>664</v>
-      </c>
-      <c r="J18">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C19" t="s">
-        <v>715</v>
-      </c>
-      <c r="D19" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" t="s">
-        <v>472</v>
-      </c>
-      <c r="H19" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" t="s">
-        <v>473</v>
-      </c>
-      <c r="J19">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>625</v>
-      </c>
-      <c r="C20" t="s">
-        <v>811</v>
-      </c>
-      <c r="D20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>679</v>
-      </c>
-      <c r="G20" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I20" t="s">
-        <v>680</v>
-      </c>
-      <c r="J20">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>674</v>
-      </c>
-      <c r="C21" t="s">
-        <v>812</v>
-      </c>
-      <c r="D21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>676</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" t="s">
-        <v>677</v>
-      </c>
-      <c r="J21">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>685</v>
-      </c>
-      <c r="C22" t="s">
-        <v>701</v>
-      </c>
-      <c r="D22" t="s">
-        <v>687</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>685</v>
-      </c>
-      <c r="G22" t="s">
-        <v>688</v>
-      </c>
-      <c r="H22" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J22">
-        <v>0.80600000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" t="s">
-        <v>813</v>
-      </c>
-      <c r="D23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>379</v>
-      </c>
-      <c r="G23" t="s">
-        <v>380</v>
-      </c>
-      <c r="H23" t="s">
-        <v>285</v>
-      </c>
-      <c r="I23" t="s">
-        <v>381</v>
-      </c>
-      <c r="J23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C24" t="s">
-        <v>814</v>
-      </c>
-      <c r="D24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>414</v>
-      </c>
-      <c r="G24" t="s">
-        <v>380</v>
-      </c>
-      <c r="H24" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" t="s">
-        <v>415</v>
-      </c>
-      <c r="J24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>665</v>
-      </c>
-      <c r="C25" t="s">
-        <v>815</v>
-      </c>
-      <c r="D25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>667</v>
-      </c>
-      <c r="G25" t="s">
-        <v>380</v>
-      </c>
-      <c r="H25" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" t="s">
-        <v>668</v>
-      </c>
-      <c r="J25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" t="s">
-        <v>816</v>
-      </c>
-      <c r="D26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>512</v>
-      </c>
-      <c r="G26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" t="s">
-        <v>513</v>
-      </c>
-      <c r="J26">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>681</v>
-      </c>
-      <c r="C27" t="s">
-        <v>817</v>
-      </c>
-      <c r="D27" t="s">
-        <v>295</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>683</v>
-      </c>
-      <c r="G27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" t="s">
-        <v>285</v>
-      </c>
-      <c r="I27" t="s">
-        <v>684</v>
-      </c>
-      <c r="J27">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>700</v>
-      </c>
-      <c r="C28" t="s">
-        <v>818</v>
-      </c>
-      <c r="D28" t="s">
-        <v>702</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>700</v>
-      </c>
-      <c r="G28" t="s">
-        <v>693</v>
-      </c>
-      <c r="H28" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" t="s">
-        <v>703</v>
-      </c>
-      <c r="J28">
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>695</v>
-      </c>
-      <c r="C29" t="s">
-        <v>506</v>
-      </c>
-      <c r="D29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>695</v>
-      </c>
-      <c r="G29" t="s">
-        <v>698</v>
-      </c>
-      <c r="H29" t="s">
-        <v>285</v>
-      </c>
-      <c r="I29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J29">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>690</v>
-      </c>
-      <c r="C30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>690</v>
-      </c>
-      <c r="G30" t="s">
-        <v>693</v>
-      </c>
-      <c r="H30" t="s">
-        <v>285</v>
-      </c>
-      <c r="I30" t="s">
-        <v>694</v>
-      </c>
-      <c r="J30">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>704</v>
-      </c>
-      <c r="C31" t="s">
-        <v>705</v>
-      </c>
-      <c r="D31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>704</v>
-      </c>
-      <c r="G31" t="s">
-        <v>707</v>
-      </c>
-      <c r="H31" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" t="s">
-        <v>708</v>
-      </c>
-      <c r="J31">
-        <v>2.7090000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>819</v>
-      </c>
-      <c r="C32" t="s">
-        <v>820</v>
-      </c>
-      <c r="D32" t="s">
-        <v>821</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>822</v>
-      </c>
-      <c r="G32" t="s">
-        <v>823</v>
-      </c>
-      <c r="H32" t="s">
-        <v>285</v>
-      </c>
-      <c r="I32" t="s">
-        <v>824</v>
-      </c>
-      <c r="J32">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>825</v>
-      </c>
-      <c r="C33" t="s">
-        <v>826</v>
-      </c>
-      <c r="D33" t="s">
-        <v>827</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>825</v>
-      </c>
-      <c r="G33" t="s">
-        <v>828</v>
-      </c>
-      <c r="H33" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" t="s">
-        <v>829</v>
-      </c>
-      <c r="J33">
-        <v>1.5469999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>830</v>
-      </c>
-      <c r="C34" t="s">
-        <v>831</v>
-      </c>
-      <c r="D34" t="s">
-        <v>832</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>285</v>
-      </c>
-      <c r="I34" t="s">
-        <v>833</v>
-      </c>
-      <c r="J34">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>834</v>
-      </c>
-      <c r="C35" t="s">
-        <v>403</v>
-      </c>
-      <c r="D35" t="s">
-        <v>835</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>285</v>
-      </c>
-      <c r="I35" t="s">
-        <v>836</v>
-      </c>
-      <c r="J35">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>837</v>
-      </c>
-      <c r="C36" t="s">
-        <v>838</v>
-      </c>
-      <c r="D36" t="s">
-        <v>839</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>285</v>
-      </c>
-      <c r="I36" t="s">
-        <v>840</v>
-      </c>
-      <c r="J36">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" t="s">
-        <v>841</v>
-      </c>
-      <c r="D37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G37" t="s">
-        <v>307</v>
-      </c>
-      <c r="H37" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" t="s">
-        <v>308</v>
-      </c>
-      <c r="J37">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>330</v>
-      </c>
-      <c r="C38" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" t="s">
-        <v>332</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" t="s">
-        <v>285</v>
-      </c>
-      <c r="I38" t="s">
-        <v>335</v>
-      </c>
-      <c r="J38">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>588</v>
-      </c>
-      <c r="C39" t="s">
-        <v>589</v>
-      </c>
-      <c r="D39" t="s">
-        <v>590</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>591</v>
-      </c>
-      <c r="G39" t="s">
-        <v>592</v>
-      </c>
-      <c r="H39" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" t="s">
-        <v>593</v>
-      </c>
-      <c r="J39">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>594</v>
-      </c>
-      <c r="C40" t="s">
-        <v>842</v>
-      </c>
-      <c r="D40" t="s">
-        <v>321</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>596</v>
-      </c>
-      <c r="G40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H40" t="s">
-        <v>285</v>
-      </c>
-      <c r="I40" t="s">
-        <v>597</v>
-      </c>
-      <c r="J40">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>547</v>
-      </c>
-      <c r="C41" t="s">
-        <v>843</v>
-      </c>
-      <c r="D41" t="s">
-        <v>321</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>549</v>
-      </c>
-      <c r="G41" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" t="s">
-        <v>285</v>
-      </c>
-      <c r="I41" t="s">
-        <v>550</v>
-      </c>
-      <c r="J41">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>556</v>
-      </c>
-      <c r="C42" t="s">
-        <v>844</v>
-      </c>
-      <c r="D42" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>558</v>
-      </c>
-      <c r="G42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" t="s">
-        <v>285</v>
-      </c>
-      <c r="I42" t="s">
-        <v>559</v>
-      </c>
-      <c r="J42">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>560</v>
-      </c>
-      <c r="C43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D43" t="s">
-        <v>562</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>560</v>
-      </c>
-      <c r="G43" t="s">
-        <v>563</v>
-      </c>
-      <c r="H43" t="s">
-        <v>285</v>
-      </c>
-      <c r="I43" t="s">
-        <v>564</v>
-      </c>
-      <c r="J43">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C44" t="s">
-        <v>845</v>
-      </c>
-      <c r="D44" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>430</v>
-      </c>
-      <c r="G44" t="s">
-        <v>307</v>
-      </c>
-      <c r="H44" t="s">
-        <v>285</v>
-      </c>
-      <c r="I44" t="s">
-        <v>431</v>
-      </c>
-      <c r="J44">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>408</v>
-      </c>
-      <c r="C45" t="s">
-        <v>846</v>
-      </c>
-      <c r="D45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>410</v>
-      </c>
-      <c r="G45" t="s">
-        <v>307</v>
-      </c>
-      <c r="H45" t="s">
-        <v>285</v>
-      </c>
-      <c r="I45" t="s">
-        <v>411</v>
-      </c>
-      <c r="J45">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>424</v>
-      </c>
-      <c r="C46" t="s">
-        <v>847</v>
-      </c>
-      <c r="D46" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>426</v>
-      </c>
-      <c r="G46" t="s">
-        <v>380</v>
-      </c>
-      <c r="H46" t="s">
-        <v>285</v>
-      </c>
-      <c r="I46" t="s">
-        <v>427</v>
-      </c>
-      <c r="J46">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>419</v>
-      </c>
-      <c r="C47" t="s">
-        <v>848</v>
-      </c>
-      <c r="D47" t="s">
-        <v>378</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>421</v>
-      </c>
-      <c r="G47" t="s">
-        <v>422</v>
-      </c>
-      <c r="H47" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" t="s">
-        <v>423</v>
-      </c>
-      <c r="J47">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" t="s">
-        <v>849</v>
-      </c>
-      <c r="D48" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>417</v>
-      </c>
-      <c r="G48" t="s">
-        <v>380</v>
-      </c>
-      <c r="H48" t="s">
-        <v>285</v>
-      </c>
-      <c r="I48" t="s">
-        <v>418</v>
-      </c>
-      <c r="J48">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>351</v>
-      </c>
-      <c r="C49" t="s">
-        <v>850</v>
-      </c>
-      <c r="D49" t="s">
-        <v>353</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>354</v>
-      </c>
-      <c r="G49" t="s">
-        <v>307</v>
-      </c>
-      <c r="H49" t="s">
-        <v>285</v>
-      </c>
-      <c r="I49" t="s">
-        <v>355</v>
-      </c>
-      <c r="J49">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>293</v>
-      </c>
-      <c r="C50" t="s">
-        <v>851</v>
-      </c>
-      <c r="D50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" t="s">
-        <v>298</v>
-      </c>
-      <c r="J50">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>852</v>
-      </c>
-      <c r="C51" t="s">
-        <v>622</v>
-      </c>
-      <c r="D51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>853</v>
-      </c>
-      <c r="G51" t="s">
-        <v>297</v>
-      </c>
-      <c r="H51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" t="s">
-        <v>854</v>
-      </c>
-      <c r="J51">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>451</v>
-      </c>
-      <c r="C52" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" t="s">
-        <v>453</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>451</v>
-      </c>
-      <c r="G52" t="s">
-        <v>454</v>
-      </c>
-      <c r="H52" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" t="s">
-        <v>455</v>
-      </c>
-      <c r="J52">
-        <v>0.45100000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" t="s">
-        <v>855</v>
-      </c>
-      <c r="D53" t="s">
-        <v>372</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>373</v>
-      </c>
-      <c r="G53" t="s">
-        <v>374</v>
-      </c>
-      <c r="H53" t="s">
-        <v>285</v>
-      </c>
-      <c r="I53" t="s">
-        <v>375</v>
-      </c>
-      <c r="J53">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>446</v>
-      </c>
-      <c r="C54" t="s">
-        <v>856</v>
-      </c>
-      <c r="D54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>448</v>
-      </c>
-      <c r="G54" t="s">
-        <v>449</v>
-      </c>
-      <c r="H54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I54" t="s">
-        <v>450</v>
-      </c>
-      <c r="J54">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>442</v>
-      </c>
-      <c r="C55" t="s">
-        <v>857</v>
-      </c>
-      <c r="D55" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>444</v>
-      </c>
-      <c r="G55" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" t="s">
-        <v>285</v>
-      </c>
-      <c r="I55" t="s">
-        <v>445</v>
-      </c>
-      <c r="J55">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>437</v>
-      </c>
-      <c r="C56" t="s">
-        <v>858</v>
-      </c>
-      <c r="D56" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>440</v>
-      </c>
-      <c r="G56" t="s">
-        <v>297</v>
-      </c>
-      <c r="H56" t="s">
-        <v>285</v>
-      </c>
-      <c r="I56" t="s">
-        <v>441</v>
-      </c>
-      <c r="J56">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>432</v>
-      </c>
-      <c r="C57" t="s">
-        <v>859</v>
-      </c>
-      <c r="D57" t="s">
-        <v>434</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>435</v>
-      </c>
-      <c r="G57" t="s">
-        <v>297</v>
-      </c>
-      <c r="H57" t="s">
-        <v>285</v>
-      </c>
-      <c r="I57" t="s">
-        <v>436</v>
-      </c>
-      <c r="J57">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>456</v>
-      </c>
-      <c r="C58" t="s">
-        <v>860</v>
-      </c>
-      <c r="D58" t="s">
-        <v>458</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>456</v>
-      </c>
-      <c r="G58" t="s">
-        <v>459</v>
-      </c>
-      <c r="H58" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" t="s">
-        <v>460</v>
-      </c>
-      <c r="J58">
-        <v>3.1880000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>861</v>
-      </c>
-      <c r="C59" t="s">
-        <v>862</v>
-      </c>
-      <c r="D59" t="s">
-        <v>863</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>861</v>
-      </c>
-      <c r="G59" t="s">
-        <v>672</v>
-      </c>
-      <c r="H59" t="s">
-        <v>285</v>
-      </c>
-      <c r="I59" t="s">
-        <v>864</v>
-      </c>
-      <c r="J59">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>382</v>
-      </c>
-      <c r="C60" t="s">
-        <v>383</v>
-      </c>
-      <c r="D60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>382</v>
-      </c>
-      <c r="G60" t="s">
-        <v>385</v>
-      </c>
-      <c r="H60" t="s">
-        <v>285</v>
-      </c>
-      <c r="I60" t="s">
-        <v>386</v>
-      </c>
-      <c r="J60">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>387</v>
-      </c>
-      <c r="C61" t="s">
-        <v>865</v>
-      </c>
-      <c r="D61" t="s">
-        <v>389</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" t="s">
-        <v>390</v>
-      </c>
-      <c r="H61" t="s">
-        <v>285</v>
-      </c>
-      <c r="I61" t="s">
-        <v>391</v>
-      </c>
-      <c r="J61">
-        <v>2.996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>866</v>
-      </c>
-      <c r="C62" t="s">
-        <v>867</v>
-      </c>
-      <c r="D62" t="s">
-        <v>868</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>869</v>
-      </c>
-      <c r="G62" t="s">
-        <v>724</v>
-      </c>
-      <c r="H62" t="s">
-        <v>285</v>
-      </c>
-      <c r="I62" t="s">
-        <v>870</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C661D0EB-63D3-4AAE-B9E3-3CE984983206}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>279</v>
       </c>
     </row>

--- a/hardware/MUR_Hardware_Design_File.xlsx
+++ b/hardware/MUR_Hardware_Design_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/smayberry8_gatech_edu/Documents/Georgia Tech/Projects/MUR/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1E206D3C-9137-43EC-ABFB-1CB916EE4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E92CA9B-9396-482F-941A-2CFC6E12ADE7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1E206D3C-9137-43EC-ABFB-1CB916EE4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF58126-752E-49C2-84BF-7E0D26F34974}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Battery Fuselage PCB" sheetId="5" r:id="rId3"/>
     <sheet name="ESC to Thruster PCB" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -304,9 +317,6 @@
     <t>CAD file</t>
   </si>
   <si>
-    <t>CERN-OHL-P</t>
-  </si>
-  <si>
     <t>Available with the article</t>
   </si>
   <si>
@@ -2723,13 +2733,16 @@
   </si>
   <si>
     <t>C9900000737</t>
+  </si>
+  <si>
+    <t>CERN-OHL-P v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2748,6 +2761,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2814,6 +2833,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3105,7 +3128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3133,7 +3158,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3144,16 +3169,16 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3164,16 +3189,16 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
+        <v>870</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3184,16 +3209,16 @@
         <v>92</v>
       </c>
       <c r="C4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3204,16 +3229,16 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3224,16 +3249,16 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3244,16 +3269,16 @@
         <v>92</v>
       </c>
       <c r="C7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3264,16 +3289,16 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
+        <v>870</v>
+      </c>
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3284,16 +3309,16 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3304,16 +3329,16 @@
         <v>92</v>
       </c>
       <c r="C10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3324,16 +3349,16 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
+        <v>870</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3344,16 +3369,16 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
+        <v>870</v>
+      </c>
+      <c r="D12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3364,16 +3389,16 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
+        <v>870</v>
+      </c>
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3384,16 +3409,16 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
+        <v>870</v>
+      </c>
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3404,16 +3429,16 @@
         <v>92</v>
       </c>
       <c r="C15" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3424,16 +3449,16 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
+        <v>870</v>
+      </c>
+      <c r="D16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3444,16 +3469,16 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3464,16 +3489,16 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
+        <v>870</v>
+      </c>
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3484,16 +3509,16 @@
         <v>92</v>
       </c>
       <c r="C19" t="s">
+        <v>870</v>
+      </c>
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3504,16 +3529,16 @@
         <v>92</v>
       </c>
       <c r="C20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3524,16 +3549,16 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
+        <v>870</v>
+      </c>
+      <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3544,16 +3569,16 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
+        <v>870</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3564,16 +3589,16 @@
         <v>92</v>
       </c>
       <c r="C23" t="s">
+        <v>870</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3584,16 +3609,16 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3604,16 +3629,16 @@
         <v>92</v>
       </c>
       <c r="C25" t="s">
+        <v>870</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3624,16 +3649,16 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
+        <v>870</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3644,16 +3669,16 @@
         <v>92</v>
       </c>
       <c r="C27" t="s">
+        <v>870</v>
+      </c>
+      <c r="D27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,16 +3689,16 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
+        <v>870</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3684,16 +3709,16 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
+        <v>870</v>
+      </c>
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3704,16 +3729,16 @@
         <v>92</v>
       </c>
       <c r="C30" t="s">
+        <v>870</v>
+      </c>
+      <c r="D30" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3724,16 +3749,16 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3744,16 +3769,16 @@
         <v>92</v>
       </c>
       <c r="C32" t="s">
+        <v>870</v>
+      </c>
+      <c r="D32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3764,16 +3789,16 @@
         <v>92</v>
       </c>
       <c r="C33" t="s">
+        <v>870</v>
+      </c>
+      <c r="D33" t="s">
         <v>93</v>
       </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3784,16 +3809,16 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
+        <v>870</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3804,16 +3829,16 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
+        <v>870</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3824,16 +3849,16 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
+        <v>870</v>
+      </c>
+      <c r="D36" t="s">
         <v>93</v>
       </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3844,16 +3869,16 @@
         <v>92</v>
       </c>
       <c r="C37" t="s">
+        <v>870</v>
+      </c>
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
-        <v>94</v>
-      </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3864,16 +3889,16 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
+        <v>870</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3884,16 +3909,16 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
+        <v>870</v>
+      </c>
+      <c r="D39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3904,16 +3929,16 @@
         <v>92</v>
       </c>
       <c r="C40" t="s">
+        <v>870</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3924,16 +3949,16 @@
         <v>92</v>
       </c>
       <c r="C41" t="s">
+        <v>870</v>
+      </c>
+      <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3944,16 +3969,16 @@
         <v>92</v>
       </c>
       <c r="C42" t="s">
+        <v>870</v>
+      </c>
+      <c r="D42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3964,16 +3989,16 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
+        <v>870</v>
+      </c>
+      <c r="D43" t="s">
         <v>93</v>
       </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3984,16 +4009,16 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
+        <v>870</v>
+      </c>
+      <c r="D44" t="s">
         <v>93</v>
       </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4004,16 +4029,16 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
+        <v>870</v>
+      </c>
+      <c r="D45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4024,16 +4049,16 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
+        <v>870</v>
+      </c>
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4044,16 +4069,16 @@
         <v>92</v>
       </c>
       <c r="C47" t="s">
+        <v>870</v>
+      </c>
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4064,16 +4089,16 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
+        <v>870</v>
+      </c>
+      <c r="D48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4084,16 +4109,16 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
+        <v>870</v>
+      </c>
+      <c r="D49" t="s">
         <v>93</v>
       </c>
-      <c r="D49" t="s">
-        <v>94</v>
-      </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4104,16 +4129,16 @@
         <v>92</v>
       </c>
       <c r="C50" t="s">
+        <v>870</v>
+      </c>
+      <c r="D50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4124,16 +4149,16 @@
         <v>92</v>
       </c>
       <c r="C51" t="s">
+        <v>870</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="D51" t="s">
-        <v>94</v>
-      </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4144,16 +4169,16 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
+        <v>870</v>
+      </c>
+      <c r="D52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" t="s">
-        <v>94</v>
-      </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4164,16 +4189,16 @@
         <v>92</v>
       </c>
       <c r="C53" t="s">
+        <v>870</v>
+      </c>
+      <c r="D53" t="s">
         <v>93</v>
       </c>
-      <c r="D53" t="s">
-        <v>94</v>
-      </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4184,16 +4209,16 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
+        <v>870</v>
+      </c>
+      <c r="D54" t="s">
         <v>93</v>
       </c>
-      <c r="D54" t="s">
-        <v>94</v>
-      </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4204,16 +4229,16 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
+        <v>870</v>
+      </c>
+      <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4224,16 +4249,16 @@
         <v>92</v>
       </c>
       <c r="C56" t="s">
+        <v>870</v>
+      </c>
+      <c r="D56" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4244,16 +4269,16 @@
         <v>92</v>
       </c>
       <c r="C57" t="s">
+        <v>870</v>
+      </c>
+      <c r="D57" t="s">
         <v>93</v>
       </c>
-      <c r="D57" t="s">
-        <v>94</v>
-      </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4264,16 +4289,16 @@
         <v>92</v>
       </c>
       <c r="C58" t="s">
+        <v>870</v>
+      </c>
+      <c r="D58" t="s">
         <v>93</v>
       </c>
-      <c r="D58" t="s">
-        <v>94</v>
-      </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4284,16 +4309,16 @@
         <v>92</v>
       </c>
       <c r="C59" t="s">
+        <v>870</v>
+      </c>
+      <c r="D59" t="s">
         <v>93</v>
       </c>
-      <c r="D59" t="s">
-        <v>94</v>
-      </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4304,16 +4329,16 @@
         <v>92</v>
       </c>
       <c r="C60" t="s">
+        <v>870</v>
+      </c>
+      <c r="D60" t="s">
         <v>93</v>
       </c>
-      <c r="D60" t="s">
-        <v>94</v>
-      </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4324,16 +4349,16 @@
         <v>92</v>
       </c>
       <c r="C61" t="s">
+        <v>870</v>
+      </c>
+      <c r="D61" t="s">
         <v>93</v>
       </c>
-      <c r="D61" t="s">
-        <v>94</v>
-      </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4344,16 +4369,16 @@
         <v>92</v>
       </c>
       <c r="C62" t="s">
+        <v>870</v>
+      </c>
+      <c r="D62" t="s">
         <v>93</v>
       </c>
-      <c r="D62" t="s">
-        <v>94</v>
-      </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4364,16 +4389,16 @@
         <v>92</v>
       </c>
       <c r="C63" t="s">
+        <v>870</v>
+      </c>
+      <c r="D63" t="s">
         <v>93</v>
       </c>
-      <c r="D63" t="s">
-        <v>94</v>
-      </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4384,16 +4409,16 @@
         <v>92</v>
       </c>
       <c r="C64" t="s">
+        <v>870</v>
+      </c>
+      <c r="D64" t="s">
         <v>93</v>
       </c>
-      <c r="D64" t="s">
-        <v>94</v>
-      </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4404,16 +4429,16 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
+        <v>870</v>
+      </c>
+      <c r="D65" t="s">
         <v>93</v>
       </c>
-      <c r="D65" t="s">
-        <v>94</v>
-      </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4424,16 +4449,16 @@
         <v>92</v>
       </c>
       <c r="C66" t="s">
+        <v>870</v>
+      </c>
+      <c r="D66" t="s">
         <v>93</v>
       </c>
-      <c r="D66" t="s">
-        <v>94</v>
-      </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4444,16 +4469,16 @@
         <v>92</v>
       </c>
       <c r="C67" t="s">
+        <v>870</v>
+      </c>
+      <c r="D67" t="s">
         <v>93</v>
       </c>
-      <c r="D67" t="s">
-        <v>94</v>
-      </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4464,16 +4489,16 @@
         <v>92</v>
       </c>
       <c r="C68" t="s">
+        <v>870</v>
+      </c>
+      <c r="D68" t="s">
         <v>93</v>
       </c>
-      <c r="D68" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4484,16 +4509,16 @@
         <v>92</v>
       </c>
       <c r="C69" t="s">
+        <v>870</v>
+      </c>
+      <c r="D69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
-        <v>94</v>
-      </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4504,16 +4529,16 @@
         <v>92</v>
       </c>
       <c r="C70" t="s">
+        <v>870</v>
+      </c>
+      <c r="D70" t="s">
         <v>93</v>
       </c>
-      <c r="D70" t="s">
-        <v>94</v>
-      </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,16 +4549,16 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
+        <v>870</v>
+      </c>
+      <c r="D71" t="s">
         <v>93</v>
       </c>
-      <c r="D71" t="s">
-        <v>94</v>
-      </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4544,16 +4569,16 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
+        <v>870</v>
+      </c>
+      <c r="D72" t="s">
         <v>93</v>
       </c>
-      <c r="D72" t="s">
-        <v>94</v>
-      </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4564,16 +4589,16 @@
         <v>92</v>
       </c>
       <c r="C73" t="s">
+        <v>870</v>
+      </c>
+      <c r="D73" t="s">
         <v>93</v>
       </c>
-      <c r="D73" t="s">
-        <v>94</v>
-      </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4584,16 +4609,16 @@
         <v>92</v>
       </c>
       <c r="C74" t="s">
+        <v>870</v>
+      </c>
+      <c r="D74" t="s">
         <v>93</v>
       </c>
-      <c r="D74" t="s">
-        <v>94</v>
-      </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4604,16 +4629,16 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
+        <v>870</v>
+      </c>
+      <c r="D75" t="s">
         <v>93</v>
       </c>
-      <c r="D75" t="s">
-        <v>94</v>
-      </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4624,16 +4649,16 @@
         <v>92</v>
       </c>
       <c r="C76" t="s">
+        <v>870</v>
+      </c>
+      <c r="D76" t="s">
         <v>93</v>
       </c>
-      <c r="D76" t="s">
-        <v>94</v>
-      </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4644,16 +4669,16 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
+        <v>870</v>
+      </c>
+      <c r="D77" t="s">
         <v>93</v>
       </c>
-      <c r="D77" t="s">
-        <v>94</v>
-      </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4664,16 +4689,16 @@
         <v>92</v>
       </c>
       <c r="C78" t="s">
+        <v>870</v>
+      </c>
+      <c r="D78" t="s">
         <v>93</v>
       </c>
-      <c r="D78" t="s">
-        <v>94</v>
-      </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4684,16 +4709,16 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
+        <v>870</v>
+      </c>
+      <c r="D79" t="s">
         <v>93</v>
       </c>
-      <c r="D79" t="s">
-        <v>94</v>
-      </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4704,16 +4729,16 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
+        <v>870</v>
+      </c>
+      <c r="D80" t="s">
         <v>93</v>
       </c>
-      <c r="D80" t="s">
-        <v>94</v>
-      </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4724,16 +4749,16 @@
         <v>92</v>
       </c>
       <c r="C81" t="s">
+        <v>870</v>
+      </c>
+      <c r="D81" t="s">
         <v>93</v>
       </c>
-      <c r="D81" t="s">
-        <v>94</v>
-      </c>
       <c r="E81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4744,16 +4769,16 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
+        <v>870</v>
+      </c>
+      <c r="D82" t="s">
         <v>93</v>
       </c>
-      <c r="D82" t="s">
-        <v>94</v>
-      </c>
       <c r="E82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4764,16 +4789,16 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
+        <v>870</v>
+      </c>
+      <c r="D83" t="s">
         <v>93</v>
       </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
       <c r="E83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4784,16 +4809,16 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
+        <v>870</v>
+      </c>
+      <c r="D84" t="s">
         <v>93</v>
       </c>
-      <c r="D84" t="s">
-        <v>94</v>
-      </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4804,16 +4829,16 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
+        <v>870</v>
+      </c>
+      <c r="D85" t="s">
         <v>93</v>
       </c>
-      <c r="D85" t="s">
-        <v>94</v>
-      </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4824,16 +4849,16 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
+        <v>870</v>
+      </c>
+      <c r="D86" t="s">
         <v>93</v>
       </c>
-      <c r="D86" t="s">
-        <v>94</v>
-      </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4844,16 +4869,16 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
+        <v>870</v>
+      </c>
+      <c r="D87" t="s">
         <v>93</v>
       </c>
-      <c r="D87" t="s">
-        <v>94</v>
-      </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4864,19 +4889,20 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
+        <v>870</v>
+      </c>
+      <c r="D88" t="s">
         <v>93</v>
       </c>
-      <c r="D88" t="s">
-        <v>94</v>
-      </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4896,57 +4922,57 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>281</v>
-      </c>
-      <c r="C2" t="s">
-        <v>282</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
         <v>283</v>
       </c>
-      <c r="F2" t="s">
-        <v>284</v>
-      </c>
       <c r="G2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
         <v>285</v>
-      </c>
-      <c r="H2" t="s">
-        <v>286</v>
       </c>
       <c r="I2">
         <v>0.107</v>
@@ -4954,28 +4980,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
         <v>287</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>288</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" t="s">
         <v>290</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" t="s">
         <v>291</v>
-      </c>
-      <c r="G3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" t="s">
-        <v>292</v>
       </c>
       <c r="I3">
         <v>2E-3</v>
@@ -4983,28 +5009,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
         <v>293</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>294</v>
-      </c>
-      <c r="C4" t="s">
-        <v>295</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" t="s">
         <v>296</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" t="s">
         <v>297</v>
-      </c>
-      <c r="G4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" t="s">
-        <v>298</v>
       </c>
       <c r="I4">
         <v>1E-3</v>
@@ -5012,28 +5038,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
         <v>299</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>300</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" t="s">
         <v>302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H5" t="s">
-        <v>303</v>
       </c>
       <c r="I5">
         <v>0.36799999999999999</v>
@@ -5041,28 +5067,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
         <v>304</v>
       </c>
-      <c r="B6" t="s">
-        <v>305</v>
-      </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
         <v>306</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" t="s">
         <v>307</v>
-      </c>
-      <c r="G6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H6" t="s">
-        <v>308</v>
       </c>
       <c r="I6">
         <v>2E-3</v>
@@ -5070,28 +5096,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
         <v>309</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" t="s">
         <v>312</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" t="s">
         <v>313</v>
-      </c>
-      <c r="G7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" t="s">
-        <v>314</v>
       </c>
       <c r="I7">
         <v>0.433</v>
@@ -5099,28 +5125,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
         <v>315</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>317</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" t="s">
         <v>318</v>
-      </c>
-      <c r="G8" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" t="s">
-        <v>319</v>
       </c>
       <c r="I8">
         <v>0.98899999999999999</v>
@@ -5128,28 +5154,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
         <v>320</v>
-      </c>
-      <c r="C9" t="s">
-        <v>321</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" t="s">
         <v>322</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" t="s">
         <v>323</v>
-      </c>
-      <c r="G9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" t="s">
-        <v>324</v>
       </c>
       <c r="I9">
         <v>1E-3</v>
@@ -5157,28 +5183,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
         <v>325</v>
       </c>
-      <c r="B10" t="s">
-        <v>326</v>
-      </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
         <v>327</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" t="s">
-        <v>329</v>
       </c>
       <c r="I10">
         <v>1E-3</v>
@@ -5186,28 +5212,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" t="s">
         <v>330</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>332</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" t="s">
         <v>333</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" t="s">
         <v>334</v>
-      </c>
-      <c r="G11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" t="s">
-        <v>335</v>
       </c>
       <c r="I11">
         <v>0.115</v>
@@ -5215,22 +5241,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
         <v>336</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>337</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I12">
         <v>2.3E-2</v>
@@ -5238,28 +5264,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" t="s">
         <v>340</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>341</v>
-      </c>
-      <c r="C13" t="s">
-        <v>342</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" t="s">
         <v>344</v>
-      </c>
-      <c r="G13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" t="s">
-        <v>345</v>
       </c>
       <c r="I13">
         <v>0.39300000000000002</v>
@@ -5267,28 +5293,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
         <v>346</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>348</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" t="s">
         <v>349</v>
-      </c>
-      <c r="G14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" t="s">
-        <v>350</v>
       </c>
       <c r="I14">
         <v>0.26300000000000001</v>
@@ -5296,28 +5322,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
         <v>351</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>352</v>
-      </c>
-      <c r="C15" t="s">
-        <v>353</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" t="s">
         <v>354</v>
-      </c>
-      <c r="F15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" t="s">
-        <v>355</v>
       </c>
       <c r="I15">
         <v>1E-3</v>
@@ -5325,28 +5351,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
         <v>356</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>358</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" t="s">
         <v>359</v>
-      </c>
-      <c r="G16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" t="s">
-        <v>360</v>
       </c>
       <c r="I16">
         <v>2.1999999999999999E-2</v>
@@ -5354,28 +5380,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
         <v>361</v>
       </c>
-      <c r="B17" t="s">
-        <v>362</v>
-      </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" t="s">
         <v>363</v>
-      </c>
-      <c r="F17" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" t="s">
-        <v>364</v>
       </c>
       <c r="I17">
         <v>1E-3</v>
@@ -5383,28 +5409,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s">
         <v>365</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>366</v>
-      </c>
-      <c r="C18" t="s">
-        <v>367</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" t="s">
         <v>368</v>
-      </c>
-      <c r="G18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" t="s">
-        <v>369</v>
       </c>
       <c r="I18">
         <v>2.952</v>
@@ -5412,28 +5438,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" t="s">
         <v>370</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>371</v>
-      </c>
-      <c r="C19" t="s">
-        <v>372</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" t="s">
         <v>373</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" t="s">
         <v>374</v>
-      </c>
-      <c r="G19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" t="s">
-        <v>375</v>
       </c>
       <c r="I19">
         <v>6.8000000000000005E-2</v>
@@ -5441,28 +5467,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" t="s">
         <v>376</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>377</v>
-      </c>
-      <c r="C20" t="s">
-        <v>378</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" t="s">
         <v>379</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" t="s">
         <v>380</v>
-      </c>
-      <c r="G20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" t="s">
-        <v>381</v>
       </c>
       <c r="I20">
         <v>0.03</v>
@@ -5470,28 +5496,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" t="s">
         <v>382</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>383</v>
-      </c>
-      <c r="C21" t="s">
-        <v>384</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F21" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" t="s">
         <v>385</v>
-      </c>
-      <c r="G21" t="s">
-        <v>285</v>
-      </c>
-      <c r="H21" t="s">
-        <v>386</v>
       </c>
       <c r="I21">
         <v>0.17799999999999999</v>
@@ -5499,28 +5525,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" t="s">
         <v>387</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>388</v>
-      </c>
-      <c r="C22" t="s">
-        <v>389</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" t="s">
         <v>390</v>
-      </c>
-      <c r="G22" t="s">
-        <v>285</v>
-      </c>
-      <c r="H22" t="s">
-        <v>391</v>
       </c>
       <c r="I22">
         <v>2.996</v>
@@ -5528,28 +5554,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
         <v>392</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>393</v>
-      </c>
-      <c r="C23" t="s">
-        <v>394</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" t="s">
         <v>395</v>
-      </c>
-      <c r="G23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H23" t="s">
-        <v>396</v>
       </c>
       <c r="I23">
         <v>0.28199999999999997</v>
@@ -5557,28 +5583,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" t="s">
         <v>397</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>398</v>
-      </c>
-      <c r="C24" t="s">
-        <v>399</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" t="s">
         <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" t="s">
-        <v>285</v>
-      </c>
-      <c r="H24" t="s">
-        <v>401</v>
       </c>
       <c r="I24">
         <v>7.0999999999999994E-2</v>
@@ -5586,28 +5612,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
         <v>402</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>403</v>
-      </c>
-      <c r="C25" t="s">
-        <v>404</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I25">
         <v>0.122</v>
@@ -5615,28 +5641,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I26">
         <v>2E-3</v>
@@ -5644,28 +5670,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" t="s">
         <v>408</v>
       </c>
-      <c r="B27" t="s">
-        <v>409</v>
-      </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" t="s">
         <v>410</v>
-      </c>
-      <c r="F27" t="s">
-        <v>307</v>
-      </c>
-      <c r="G27" t="s">
-        <v>285</v>
-      </c>
-      <c r="H27" t="s">
-        <v>411</v>
       </c>
       <c r="I27">
         <v>3.0000000000000001E-3</v>
@@ -5673,28 +5699,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
         <v>412</v>
       </c>
-      <c r="B28" t="s">
-        <v>413</v>
-      </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F28" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" t="s">
         <v>414</v>
-      </c>
-      <c r="F28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G28" t="s">
-        <v>285</v>
-      </c>
-      <c r="H28" t="s">
-        <v>415</v>
       </c>
       <c r="I28">
         <v>0.01</v>
@@ -5702,28 +5728,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29">
         <v>16</v>
       </c>
       <c r="E29" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" t="s">
         <v>417</v>
-      </c>
-      <c r="F29" t="s">
-        <v>380</v>
-      </c>
-      <c r="G29" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" t="s">
-        <v>418</v>
       </c>
       <c r="I29">
         <v>6.0000000000000001E-3</v>
@@ -5731,28 +5757,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" t="s">
         <v>419</v>
       </c>
-      <c r="B30" t="s">
-        <v>420</v>
-      </c>
       <c r="C30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" t="s">
         <v>421</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" t="s">
         <v>422</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="H30" t="s">
-        <v>423</v>
       </c>
       <c r="I30">
         <v>4.8000000000000001E-2</v>
@@ -5760,28 +5786,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" t="s">
         <v>424</v>
       </c>
-      <c r="B31" t="s">
-        <v>425</v>
-      </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" t="s">
+        <v>379</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" t="s">
         <v>426</v>
-      </c>
-      <c r="F31" t="s">
-        <v>380</v>
-      </c>
-      <c r="G31" t="s">
-        <v>285</v>
-      </c>
-      <c r="H31" t="s">
-        <v>427</v>
       </c>
       <c r="I31">
         <v>3.0000000000000001E-3</v>
@@ -5789,28 +5815,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" t="s">
         <v>428</v>
       </c>
-      <c r="B32" t="s">
-        <v>429</v>
-      </c>
       <c r="C32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" t="s">
         <v>430</v>
-      </c>
-      <c r="F32" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" t="s">
-        <v>431</v>
       </c>
       <c r="I32">
         <v>3.0000000000000001E-3</v>
@@ -5818,28 +5844,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" t="s">
         <v>432</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>433</v>
-      </c>
-      <c r="C33" t="s">
-        <v>434</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
+        <v>434</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" t="s">
         <v>435</v>
-      </c>
-      <c r="F33" t="s">
-        <v>297</v>
-      </c>
-      <c r="G33" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" t="s">
-        <v>436</v>
       </c>
       <c r="I33">
         <v>2E-3</v>
@@ -5847,28 +5873,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" t="s">
         <v>437</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>438</v>
-      </c>
-      <c r="C34" t="s">
-        <v>439</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" t="s">
         <v>440</v>
-      </c>
-      <c r="F34" t="s">
-        <v>297</v>
-      </c>
-      <c r="G34" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" t="s">
-        <v>441</v>
       </c>
       <c r="I34">
         <v>2E-3</v>
@@ -5876,28 +5902,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" t="s">
         <v>442</v>
       </c>
-      <c r="B35" t="s">
-        <v>443</v>
-      </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" t="s">
         <v>444</v>
-      </c>
-      <c r="F35" t="s">
-        <v>297</v>
-      </c>
-      <c r="G35" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" t="s">
-        <v>445</v>
       </c>
       <c r="I35">
         <v>1E-3</v>
@@ -5905,28 +5931,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" t="s">
         <v>446</v>
       </c>
-      <c r="B36" t="s">
-        <v>447</v>
-      </c>
       <c r="C36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
+        <v>447</v>
+      </c>
+      <c r="F36" t="s">
         <v>448</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" t="s">
         <v>449</v>
-      </c>
-      <c r="G36" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" t="s">
-        <v>450</v>
       </c>
       <c r="I36">
         <v>1E-3</v>
@@ -5934,28 +5960,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B37" t="s">
         <v>451</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>452</v>
-      </c>
-      <c r="C37" t="s">
-        <v>453</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F37" t="s">
+        <v>453</v>
+      </c>
+      <c r="G37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" t="s">
         <v>454</v>
-      </c>
-      <c r="G37" t="s">
-        <v>285</v>
-      </c>
-      <c r="H37" t="s">
-        <v>455</v>
       </c>
       <c r="I37">
         <v>0.45100000000000001</v>
@@ -5963,28 +5989,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>455</v>
+      </c>
+      <c r="B38" t="s">
         <v>456</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>457</v>
-      </c>
-      <c r="C38" t="s">
-        <v>458</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F38" t="s">
+        <v>458</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" t="s">
         <v>459</v>
-      </c>
-      <c r="G38" t="s">
-        <v>285</v>
-      </c>
-      <c r="H38" t="s">
-        <v>460</v>
       </c>
       <c r="I38">
         <v>3.1880000000000002</v>
@@ -5992,28 +6018,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39" t="s">
         <v>461</v>
       </c>
-      <c r="B39" t="s">
-        <v>462</v>
-      </c>
       <c r="C39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>462</v>
+      </c>
+      <c r="F39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" t="s">
         <v>463</v>
-      </c>
-      <c r="F39" t="s">
-        <v>380</v>
-      </c>
-      <c r="G39" t="s">
-        <v>285</v>
-      </c>
-      <c r="H39" t="s">
-        <v>464</v>
       </c>
       <c r="I39">
         <v>3.0000000000000001E-3</v>
@@ -6021,22 +6047,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" t="s">
         <v>465</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>466</v>
-      </c>
-      <c r="C40" t="s">
-        <v>467</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I40">
         <v>0.16500000000000001</v>
@@ -6044,28 +6070,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" t="s">
         <v>469</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>470</v>
-      </c>
-      <c r="C41" t="s">
-        <v>471</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F41" t="s">
+        <v>471</v>
+      </c>
+      <c r="G41" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" t="s">
         <v>472</v>
-      </c>
-      <c r="G41" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" t="s">
-        <v>473</v>
       </c>
       <c r="I41">
         <v>0.72199999999999998</v>
@@ -6073,28 +6099,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" t="s">
         <v>474</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>475</v>
-      </c>
-      <c r="C42" t="s">
-        <v>476</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F42" t="s">
+        <v>476</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" t="s">
         <v>477</v>
-      </c>
-      <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" t="s">
-        <v>478</v>
       </c>
       <c r="I42">
         <v>0.151</v>
@@ -6102,28 +6128,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43" t="s">
         <v>479</v>
       </c>
-      <c r="B43" t="s">
-        <v>480</v>
-      </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43">
         <v>6</v>
       </c>
       <c r="E43" t="s">
+        <v>480</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43" t="s">
         <v>481</v>
-      </c>
-      <c r="F43" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" t="s">
-        <v>482</v>
       </c>
       <c r="I43">
         <v>1E-3</v>
@@ -6131,28 +6157,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>482</v>
+      </c>
+      <c r="B44" t="s">
         <v>483</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>484</v>
-      </c>
-      <c r="C44" t="s">
-        <v>485</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F44" t="s">
+        <v>485</v>
+      </c>
+      <c r="G44" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" t="s">
         <v>486</v>
-      </c>
-      <c r="G44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H44" t="s">
-        <v>487</v>
       </c>
       <c r="I44">
         <v>2.121</v>
@@ -6160,28 +6186,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" t="s">
         <v>488</v>
       </c>
-      <c r="B45" t="s">
-        <v>489</v>
-      </c>
       <c r="C45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
+        <v>489</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" t="s">
         <v>490</v>
-      </c>
-      <c r="F45" t="s">
-        <v>297</v>
-      </c>
-      <c r="G45" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" t="s">
-        <v>491</v>
       </c>
       <c r="I45">
         <v>1E-3</v>
@@ -6189,28 +6215,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" t="s">
         <v>492</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>493</v>
-      </c>
-      <c r="C46" t="s">
-        <v>494</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F46" t="s">
+        <v>494</v>
+      </c>
+      <c r="G46" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" t="s">
         <v>495</v>
-      </c>
-      <c r="G46" t="s">
-        <v>285</v>
-      </c>
-      <c r="H46" t="s">
-        <v>496</v>
       </c>
       <c r="I46">
         <v>0.58299999999999996</v>
@@ -6218,28 +6244,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>496</v>
+      </c>
+      <c r="B47" t="s">
         <v>497</v>
       </c>
-      <c r="B47" t="s">
-        <v>498</v>
-      </c>
       <c r="C47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
+        <v>498</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>284</v>
+      </c>
+      <c r="H47" t="s">
         <v>499</v>
-      </c>
-      <c r="F47" t="s">
-        <v>374</v>
-      </c>
-      <c r="G47" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" t="s">
-        <v>500</v>
       </c>
       <c r="I47">
         <v>6.8000000000000005E-2</v>
@@ -6247,28 +6273,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s">
         <v>501</v>
       </c>
-      <c r="B48" t="s">
-        <v>502</v>
-      </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48" t="s">
+        <v>502</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" t="s">
         <v>503</v>
-      </c>
-      <c r="F48" t="s">
-        <v>323</v>
-      </c>
-      <c r="G48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H48" t="s">
-        <v>504</v>
       </c>
       <c r="I48">
         <v>1E-3</v>
@@ -6276,28 +6302,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49" t="s">
         <v>505</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>506</v>
-      </c>
-      <c r="C49" t="s">
-        <v>507</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F49" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" t="s">
         <v>508</v>
-      </c>
-      <c r="G49" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" t="s">
-        <v>509</v>
       </c>
       <c r="I49">
         <v>0.25</v>
@@ -6305,28 +6331,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" t="s">
         <v>510</v>
       </c>
-      <c r="B50" t="s">
-        <v>511</v>
-      </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
+        <v>511</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" t="s">
         <v>512</v>
-      </c>
-      <c r="F50" t="s">
-        <v>297</v>
-      </c>
-      <c r="G50" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" t="s">
-        <v>513</v>
       </c>
       <c r="I50">
         <v>1E-3</v>
@@ -6334,28 +6360,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>513</v>
+      </c>
+      <c r="B51" t="s">
         <v>514</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>515</v>
-      </c>
-      <c r="C51" t="s">
-        <v>516</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I51">
         <v>0.16800000000000001</v>
@@ -6363,28 +6389,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52" t="s">
         <v>518</v>
       </c>
-      <c r="B52" t="s">
-        <v>519</v>
-      </c>
       <c r="C52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
+        <v>519</v>
+      </c>
+      <c r="F52" t="s">
         <v>520</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>284</v>
+      </c>
+      <c r="H52" t="s">
         <v>521</v>
-      </c>
-      <c r="G52" t="s">
-        <v>285</v>
-      </c>
-      <c r="H52" t="s">
-        <v>522</v>
       </c>
       <c r="I52">
         <v>1E-3</v>
@@ -6392,28 +6418,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B53" t="s">
         <v>523</v>
       </c>
-      <c r="B53" t="s">
-        <v>524</v>
-      </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
+        <v>524</v>
+      </c>
+      <c r="F53" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" t="s">
         <v>525</v>
-      </c>
-      <c r="F53" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" t="s">
-        <v>285</v>
-      </c>
-      <c r="H53" t="s">
-        <v>526</v>
       </c>
       <c r="I53">
         <v>1E-3</v>
@@ -6421,28 +6447,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
+        <v>527</v>
+      </c>
+      <c r="F54" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" t="s">
+        <v>284</v>
+      </c>
+      <c r="H54" t="s">
         <v>528</v>
-      </c>
-      <c r="F54" t="s">
-        <v>380</v>
-      </c>
-      <c r="G54" t="s">
-        <v>285</v>
-      </c>
-      <c r="H54" t="s">
-        <v>529</v>
       </c>
       <c r="I54">
         <v>4.0000000000000001E-3</v>
@@ -6450,28 +6476,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" t="s">
         <v>530</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>531</v>
-      </c>
-      <c r="C55" t="s">
-        <v>532</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F55" t="s">
+        <v>532</v>
+      </c>
+      <c r="G55" t="s">
+        <v>284</v>
+      </c>
+      <c r="H55" t="s">
         <v>533</v>
-      </c>
-      <c r="G55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H55" t="s">
-        <v>534</v>
       </c>
       <c r="I55">
         <v>0.95299999999999996</v>
@@ -6479,28 +6505,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>534</v>
+      </c>
+      <c r="B56" t="s">
         <v>535</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>536</v>
-      </c>
-      <c r="C56" t="s">
-        <v>537</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
+        <v>537</v>
+      </c>
+      <c r="F56" t="s">
         <v>538</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" t="s">
         <v>539</v>
-      </c>
-      <c r="G56" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" t="s">
-        <v>540</v>
       </c>
       <c r="I56">
         <v>3.6999999999999998E-2</v>
@@ -6508,28 +6534,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>540</v>
+      </c>
+      <c r="B57" t="s">
         <v>541</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>542</v>
-      </c>
-      <c r="C57" t="s">
-        <v>543</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
+        <v>543</v>
+      </c>
+      <c r="F57" t="s">
         <v>544</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" t="s">
         <v>545</v>
-      </c>
-      <c r="G57" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" t="s">
-        <v>546</v>
       </c>
       <c r="I57">
         <v>8.5000000000000006E-2</v>
@@ -6537,28 +6563,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>546</v>
+      </c>
+      <c r="B58" t="s">
         <v>547</v>
       </c>
-      <c r="B58" t="s">
-        <v>548</v>
-      </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
+        <v>548</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>284</v>
+      </c>
+      <c r="H58" t="s">
         <v>549</v>
-      </c>
-      <c r="F58" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" t="s">
-        <v>550</v>
       </c>
       <c r="I58">
         <v>1E-3</v>
@@ -6566,28 +6592,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>550</v>
+      </c>
+      <c r="B59" t="s">
         <v>551</v>
       </c>
-      <c r="B59" t="s">
-        <v>552</v>
-      </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
+        <v>552</v>
+      </c>
+      <c r="F59" t="s">
         <v>553</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>284</v>
+      </c>
+      <c r="H59" t="s">
         <v>554</v>
-      </c>
-      <c r="G59" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" t="s">
-        <v>555</v>
       </c>
       <c r="I59">
         <v>6.0000000000000001E-3</v>
@@ -6595,28 +6621,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" t="s">
         <v>556</v>
       </c>
-      <c r="B60" t="s">
-        <v>557</v>
-      </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
+        <v>557</v>
+      </c>
+      <c r="F60" t="s">
+        <v>322</v>
+      </c>
+      <c r="G60" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" t="s">
         <v>558</v>
-      </c>
-      <c r="F60" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" t="s">
-        <v>559</v>
       </c>
       <c r="I60">
         <v>1E-3</v>
@@ -6624,28 +6650,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>559</v>
+      </c>
+      <c r="B61" t="s">
         <v>560</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>561</v>
-      </c>
-      <c r="C61" t="s">
-        <v>562</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F61" t="s">
+        <v>562</v>
+      </c>
+      <c r="G61" t="s">
+        <v>284</v>
+      </c>
+      <c r="H61" t="s">
         <v>563</v>
-      </c>
-      <c r="G61" t="s">
-        <v>285</v>
-      </c>
-      <c r="H61" t="s">
-        <v>564</v>
       </c>
       <c r="I61">
         <v>1.5</v>
@@ -6653,28 +6679,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>564</v>
+      </c>
+      <c r="B62" t="s">
         <v>565</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>566</v>
-      </c>
-      <c r="C62" t="s">
-        <v>567</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F62" t="s">
+        <v>567</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" t="s">
         <v>568</v>
-      </c>
-      <c r="G62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" t="s">
-        <v>569</v>
       </c>
       <c r="I62">
         <v>1.4770000000000001</v>
@@ -6682,28 +6708,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>569</v>
+      </c>
+      <c r="B63" t="s">
         <v>570</v>
       </c>
-      <c r="B63" t="s">
-        <v>571</v>
-      </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D63">
         <v>7</v>
       </c>
       <c r="E63" t="s">
+        <v>571</v>
+      </c>
+      <c r="F63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" t="s">
         <v>572</v>
-      </c>
-      <c r="F63" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" t="s">
-        <v>573</v>
       </c>
       <c r="I63">
         <v>1E-3</v>
@@ -6711,28 +6737,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>573</v>
+      </c>
+      <c r="B64" t="s">
         <v>574</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>575</v>
-      </c>
-      <c r="C64" t="s">
-        <v>576</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F64" t="s">
+        <v>576</v>
+      </c>
+      <c r="G64" t="s">
+        <v>284</v>
+      </c>
+      <c r="H64" t="s">
         <v>577</v>
-      </c>
-      <c r="G64" t="s">
-        <v>285</v>
-      </c>
-      <c r="H64" t="s">
-        <v>578</v>
       </c>
       <c r="I64">
         <v>0.28699999999999998</v>
@@ -6740,28 +6766,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>578</v>
+      </c>
+      <c r="B65" t="s">
         <v>579</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>580</v>
-      </c>
-      <c r="C65" t="s">
-        <v>581</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F65" t="s">
+        <v>581</v>
+      </c>
+      <c r="G65" t="s">
+        <v>284</v>
+      </c>
+      <c r="H65" t="s">
         <v>582</v>
-      </c>
-      <c r="G65" t="s">
-        <v>285</v>
-      </c>
-      <c r="H65" t="s">
-        <v>583</v>
       </c>
       <c r="I65">
         <v>0.40799999999999997</v>
@@ -6769,28 +6795,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>583</v>
+      </c>
+      <c r="B66" t="s">
         <v>584</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>585</v>
-      </c>
-      <c r="C66" t="s">
-        <v>586</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I66">
         <v>2.3E-2</v>
@@ -6798,28 +6824,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>587</v>
+      </c>
+      <c r="B67" t="s">
         <v>588</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>589</v>
-      </c>
-      <c r="C67" t="s">
-        <v>590</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
+        <v>590</v>
+      </c>
+      <c r="F67" t="s">
         <v>591</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" t="s">
         <v>592</v>
-      </c>
-      <c r="G67" t="s">
-        <v>285</v>
-      </c>
-      <c r="H67" t="s">
-        <v>593</v>
       </c>
       <c r="I67">
         <v>1.4999999999999999E-2</v>
@@ -6827,28 +6853,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>593</v>
+      </c>
+      <c r="B68" t="s">
         <v>594</v>
       </c>
-      <c r="B68" t="s">
-        <v>595</v>
-      </c>
       <c r="C68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
+        <v>595</v>
+      </c>
+      <c r="F68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H68" t="s">
         <v>596</v>
-      </c>
-      <c r="F68" t="s">
-        <v>323</v>
-      </c>
-      <c r="G68" t="s">
-        <v>285</v>
-      </c>
-      <c r="H68" t="s">
-        <v>597</v>
       </c>
       <c r="I68">
         <v>1E-3</v>
@@ -6856,28 +6882,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>597</v>
+      </c>
+      <c r="B69" t="s">
         <v>598</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>599</v>
-      </c>
-      <c r="C69" t="s">
-        <v>600</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F69" t="s">
+        <v>600</v>
+      </c>
+      <c r="G69" t="s">
+        <v>284</v>
+      </c>
+      <c r="H69" t="s">
         <v>601</v>
-      </c>
-      <c r="G69" t="s">
-        <v>285</v>
-      </c>
-      <c r="H69" t="s">
-        <v>602</v>
       </c>
       <c r="I69">
         <v>0.192</v>
@@ -6885,28 +6911,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>602</v>
+      </c>
+      <c r="B70" t="s">
         <v>603</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>604</v>
-      </c>
-      <c r="C70" t="s">
-        <v>605</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F70" t="s">
+        <v>605</v>
+      </c>
+      <c r="G70" t="s">
+        <v>284</v>
+      </c>
+      <c r="H70" t="s">
         <v>606</v>
-      </c>
-      <c r="G70" t="s">
-        <v>285</v>
-      </c>
-      <c r="H70" t="s">
-        <v>607</v>
       </c>
       <c r="I70">
         <v>0.26400000000000001</v>
@@ -6914,28 +6940,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>607</v>
+      </c>
+      <c r="B71" t="s">
         <v>608</v>
       </c>
-      <c r="B71" t="s">
-        <v>609</v>
-      </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
+        <v>609</v>
+      </c>
+      <c r="F71" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" t="s">
         <v>610</v>
-      </c>
-      <c r="F71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G71" t="s">
-        <v>285</v>
-      </c>
-      <c r="H71" t="s">
-        <v>611</v>
       </c>
       <c r="I71">
         <v>1E-3</v>
@@ -6943,28 +6969,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>611</v>
+      </c>
+      <c r="B72" t="s">
         <v>612</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>613</v>
-      </c>
-      <c r="C72" t="s">
-        <v>614</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
+        <v>614</v>
+      </c>
+      <c r="F72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" t="s">
         <v>615</v>
-      </c>
-      <c r="F72" t="s">
-        <v>545</v>
-      </c>
-      <c r="G72" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" t="s">
-        <v>616</v>
       </c>
       <c r="I72">
         <v>1.4999999999999999E-2</v>
@@ -6972,28 +6998,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>616</v>
+      </c>
+      <c r="B73" t="s">
         <v>617</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>618</v>
-      </c>
-      <c r="C73" t="s">
-        <v>619</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I73">
         <v>0.24399999999999999</v>
@@ -7001,28 +7027,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>620</v>
+      </c>
+      <c r="B74" t="s">
         <v>621</v>
       </c>
-      <c r="B74" t="s">
-        <v>622</v>
-      </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>622</v>
+      </c>
+      <c r="F74" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" t="s">
         <v>623</v>
-      </c>
-      <c r="F74" t="s">
-        <v>323</v>
-      </c>
-      <c r="G74" t="s">
-        <v>285</v>
-      </c>
-      <c r="H74" t="s">
-        <v>624</v>
       </c>
       <c r="I74">
         <v>1E-3</v>
@@ -7030,28 +7056,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>624</v>
+      </c>
+      <c r="B75" t="s">
         <v>625</v>
       </c>
-      <c r="B75" t="s">
-        <v>626</v>
-      </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
+        <v>626</v>
+      </c>
+      <c r="F75" t="s">
+        <v>322</v>
+      </c>
+      <c r="G75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H75" t="s">
         <v>627</v>
-      </c>
-      <c r="F75" t="s">
-        <v>323</v>
-      </c>
-      <c r="G75" t="s">
-        <v>285</v>
-      </c>
-      <c r="H75" t="s">
-        <v>628</v>
       </c>
       <c r="I75">
         <v>1E-3</v>
@@ -7059,28 +7085,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>628</v>
+      </c>
+      <c r="B76" t="s">
         <v>629</v>
       </c>
-      <c r="B76" t="s">
-        <v>630</v>
-      </c>
       <c r="C76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
+        <v>630</v>
+      </c>
+      <c r="F76" t="s">
+        <v>322</v>
+      </c>
+      <c r="G76" t="s">
+        <v>284</v>
+      </c>
+      <c r="H76" t="s">
         <v>631</v>
-      </c>
-      <c r="F76" t="s">
-        <v>323</v>
-      </c>
-      <c r="G76" t="s">
-        <v>285</v>
-      </c>
-      <c r="H76" t="s">
-        <v>632</v>
       </c>
       <c r="I76">
         <v>1E-3</v>
@@ -7088,28 +7114,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>632</v>
+      </c>
+      <c r="B77" t="s">
         <v>633</v>
       </c>
-      <c r="B77" t="s">
-        <v>634</v>
-      </c>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
+        <v>634</v>
+      </c>
+      <c r="F77" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" t="s">
         <v>635</v>
-      </c>
-      <c r="F77" t="s">
-        <v>323</v>
-      </c>
-      <c r="G77" t="s">
-        <v>285</v>
-      </c>
-      <c r="H77" t="s">
-        <v>636</v>
       </c>
       <c r="I77">
         <v>1E-3</v>
@@ -7117,28 +7143,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>636</v>
+      </c>
+      <c r="B78" t="s">
         <v>637</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>638</v>
-      </c>
-      <c r="C78" t="s">
-        <v>639</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
+        <v>639</v>
+      </c>
+      <c r="F78" t="s">
         <v>640</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" t="s">
         <v>641</v>
-      </c>
-      <c r="G78" t="s">
-        <v>285</v>
-      </c>
-      <c r="H78" t="s">
-        <v>642</v>
       </c>
       <c r="I78">
         <v>5.1999999999999998E-2</v>
@@ -7146,28 +7172,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>642</v>
+      </c>
+      <c r="B79" t="s">
         <v>643</v>
       </c>
-      <c r="B79" t="s">
-        <v>644</v>
-      </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
       <c r="E79" t="s">
+        <v>644</v>
+      </c>
+      <c r="F79" t="s">
+        <v>553</v>
+      </c>
+      <c r="G79" t="s">
+        <v>284</v>
+      </c>
+      <c r="H79" t="s">
         <v>645</v>
-      </c>
-      <c r="F79" t="s">
-        <v>554</v>
-      </c>
-      <c r="G79" t="s">
-        <v>285</v>
-      </c>
-      <c r="H79" t="s">
-        <v>646</v>
       </c>
       <c r="I79">
         <v>4.2999999999999997E-2</v>
@@ -7175,28 +7201,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D80">
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I80">
         <v>0.03</v>
@@ -7204,28 +7230,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
+        <v>648</v>
+      </c>
+      <c r="F81" t="s">
+        <v>520</v>
+      </c>
+      <c r="G81" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" t="s">
         <v>649</v>
-      </c>
-      <c r="F81" t="s">
-        <v>521</v>
-      </c>
-      <c r="G81" t="s">
-        <v>285</v>
-      </c>
-      <c r="H81" t="s">
-        <v>650</v>
       </c>
       <c r="I81">
         <v>2E-3</v>
@@ -7233,28 +7259,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>650</v>
+      </c>
+      <c r="B82" t="s">
         <v>651</v>
       </c>
-      <c r="B82" t="s">
-        <v>652</v>
-      </c>
       <c r="C82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
       <c r="E82" t="s">
+        <v>652</v>
+      </c>
+      <c r="F82" t="s">
+        <v>520</v>
+      </c>
+      <c r="G82" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" t="s">
         <v>653</v>
-      </c>
-      <c r="F82" t="s">
-        <v>521</v>
-      </c>
-      <c r="G82" t="s">
-        <v>285</v>
-      </c>
-      <c r="H82" t="s">
-        <v>654</v>
       </c>
       <c r="I82">
         <v>1E-3</v>
@@ -7262,28 +7288,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>654</v>
+      </c>
+      <c r="B83" t="s">
         <v>655</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>656</v>
-      </c>
-      <c r="C83" t="s">
-        <v>657</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
+        <v>657</v>
+      </c>
+      <c r="F83" t="s">
         <v>658</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" t="s">
         <v>659</v>
-      </c>
-      <c r="G83" t="s">
-        <v>285</v>
-      </c>
-      <c r="H83" t="s">
-        <v>660</v>
       </c>
       <c r="I83">
         <v>0.108</v>
@@ -7291,28 +7317,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" t="s">
         <v>661</v>
       </c>
-      <c r="B84" t="s">
-        <v>662</v>
-      </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" t="s">
+        <v>379</v>
+      </c>
+      <c r="G84" t="s">
+        <v>284</v>
+      </c>
+      <c r="H84" t="s">
         <v>663</v>
-      </c>
-      <c r="F84" t="s">
-        <v>380</v>
-      </c>
-      <c r="G84" t="s">
-        <v>285</v>
-      </c>
-      <c r="H84" t="s">
-        <v>664</v>
       </c>
       <c r="I84">
         <v>3.0000000000000001E-3</v>
@@ -7320,28 +7346,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>664</v>
+      </c>
+      <c r="B85" t="s">
         <v>665</v>
       </c>
-      <c r="B85" t="s">
-        <v>666</v>
-      </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
+        <v>666</v>
+      </c>
+      <c r="F85" t="s">
+        <v>379</v>
+      </c>
+      <c r="G85" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" t="s">
         <v>667</v>
-      </c>
-      <c r="F85" t="s">
-        <v>380</v>
-      </c>
-      <c r="G85" t="s">
-        <v>285</v>
-      </c>
-      <c r="H85" t="s">
-        <v>668</v>
       </c>
       <c r="I85">
         <v>6.0000000000000001E-3</v>
@@ -7349,28 +7375,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>668</v>
+      </c>
+      <c r="B86" t="s">
         <v>669</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>670</v>
-      </c>
-      <c r="C86" t="s">
-        <v>671</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F86" t="s">
+        <v>671</v>
+      </c>
+      <c r="G86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H86" t="s">
         <v>672</v>
-      </c>
-      <c r="G86" t="s">
-        <v>285</v>
-      </c>
-      <c r="H86" t="s">
-        <v>673</v>
       </c>
       <c r="I86">
         <v>0.26100000000000001</v>
@@ -7378,28 +7404,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>673</v>
+      </c>
+      <c r="B87" t="s">
         <v>674</v>
       </c>
-      <c r="B87" t="s">
-        <v>675</v>
-      </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>675</v>
+      </c>
+      <c r="F87" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H87" t="s">
         <v>676</v>
-      </c>
-      <c r="F87" t="s">
-        <v>297</v>
-      </c>
-      <c r="G87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H87" t="s">
-        <v>677</v>
       </c>
       <c r="I87">
         <v>2E-3</v>
@@ -7407,28 +7433,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B88" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
+        <v>678</v>
+      </c>
+      <c r="F88" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" t="s">
+        <v>284</v>
+      </c>
+      <c r="H88" t="s">
         <v>679</v>
-      </c>
-      <c r="F88" t="s">
-        <v>297</v>
-      </c>
-      <c r="G88" t="s">
-        <v>285</v>
-      </c>
-      <c r="H88" t="s">
-        <v>680</v>
       </c>
       <c r="I88">
         <v>2E-3</v>
@@ -7436,28 +7462,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>680</v>
+      </c>
+      <c r="B89" t="s">
         <v>681</v>
       </c>
-      <c r="B89" t="s">
-        <v>682</v>
-      </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
+        <v>682</v>
+      </c>
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+      <c r="G89" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89" t="s">
         <v>683</v>
-      </c>
-      <c r="F89" t="s">
-        <v>297</v>
-      </c>
-      <c r="G89" t="s">
-        <v>285</v>
-      </c>
-      <c r="H89" t="s">
-        <v>684</v>
       </c>
       <c r="I89">
         <v>1E-3</v>
@@ -7465,28 +7491,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>684</v>
+      </c>
+      <c r="B90" t="s">
         <v>685</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>686</v>
-      </c>
-      <c r="C90" t="s">
-        <v>687</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F90" t="s">
+        <v>687</v>
+      </c>
+      <c r="G90" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" t="s">
         <v>688</v>
-      </c>
-      <c r="G90" t="s">
-        <v>285</v>
-      </c>
-      <c r="H90" t="s">
-        <v>689</v>
       </c>
       <c r="I90">
         <v>0.80600000000000005</v>
@@ -7494,28 +7520,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>689</v>
+      </c>
+      <c r="B91" t="s">
         <v>690</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>691</v>
-      </c>
-      <c r="C91" t="s">
-        <v>692</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F91" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" t="s">
+        <v>284</v>
+      </c>
+      <c r="H91" t="s">
         <v>693</v>
-      </c>
-      <c r="G91" t="s">
-        <v>285</v>
-      </c>
-      <c r="H91" t="s">
-        <v>694</v>
       </c>
       <c r="I91">
         <v>1.034</v>
@@ -7523,28 +7549,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>694</v>
+      </c>
+      <c r="B92" t="s">
         <v>695</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>696</v>
-      </c>
-      <c r="C92" t="s">
-        <v>697</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F92" t="s">
+        <v>697</v>
+      </c>
+      <c r="G92" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" t="s">
         <v>698</v>
-      </c>
-      <c r="G92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H92" t="s">
-        <v>699</v>
       </c>
       <c r="I92">
         <v>0.53900000000000003</v>
@@ -7552,28 +7578,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>699</v>
+      </c>
+      <c r="B93" t="s">
         <v>700</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>701</v>
-      </c>
-      <c r="C93" t="s">
-        <v>702</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H93" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I93">
         <v>0.95899999999999996</v>
@@ -7581,28 +7607,28 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>703</v>
+      </c>
+      <c r="B94" t="s">
         <v>704</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>705</v>
-      </c>
-      <c r="C94" t="s">
-        <v>706</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F94" t="s">
+        <v>706</v>
+      </c>
+      <c r="G94" t="s">
+        <v>284</v>
+      </c>
+      <c r="H94" t="s">
         <v>707</v>
-      </c>
-      <c r="G94" t="s">
-        <v>285</v>
-      </c>
-      <c r="H94" t="s">
-        <v>708</v>
       </c>
       <c r="I94">
         <v>2.7090000000000001</v>
@@ -7610,28 +7636,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>708</v>
+      </c>
+      <c r="B95" t="s">
         <v>709</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>710</v>
-      </c>
-      <c r="C95" t="s">
-        <v>711</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F95" t="s">
+        <v>711</v>
+      </c>
+      <c r="G95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" t="s">
         <v>712</v>
-      </c>
-      <c r="G95" t="s">
-        <v>285</v>
-      </c>
-      <c r="H95" t="s">
-        <v>713</v>
       </c>
       <c r="I95">
         <v>0.19400000000000001</v>
@@ -7639,28 +7665,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>713</v>
+      </c>
+      <c r="B96" t="s">
         <v>714</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>715</v>
-      </c>
-      <c r="C96" t="s">
-        <v>716</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
+        <v>716</v>
+      </c>
+      <c r="F96" t="s">
         <v>717</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
+        <v>284</v>
+      </c>
+      <c r="H96" t="s">
         <v>718</v>
-      </c>
-      <c r="G96" t="s">
-        <v>285</v>
-      </c>
-      <c r="H96" t="s">
-        <v>719</v>
       </c>
       <c r="I96">
         <v>3.2000000000000001E-2</v>
@@ -7668,28 +7694,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>719</v>
+      </c>
+      <c r="B97" t="s">
         <v>720</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>721</v>
-      </c>
-      <c r="C97" t="s">
-        <v>722</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
+        <v>722</v>
+      </c>
+      <c r="F97" t="s">
         <v>723</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
+        <v>284</v>
+      </c>
+      <c r="H97" t="s">
         <v>724</v>
-      </c>
-      <c r="G97" t="s">
-        <v>285</v>
-      </c>
-      <c r="H97" t="s">
-        <v>725</v>
       </c>
       <c r="I97">
         <v>0.01</v>
@@ -7697,28 +7723,28 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>725</v>
+      </c>
+      <c r="B98" t="s">
         <v>726</v>
       </c>
-      <c r="B98" t="s">
-        <v>727</v>
-      </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F98" t="s">
+        <v>727</v>
+      </c>
+      <c r="G98" t="s">
+        <v>284</v>
+      </c>
+      <c r="H98" t="s">
         <v>728</v>
-      </c>
-      <c r="G98" t="s">
-        <v>285</v>
-      </c>
-      <c r="H98" t="s">
-        <v>729</v>
       </c>
       <c r="I98">
         <v>4.2000000000000003E-2</v>
@@ -7726,25 +7752,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>729</v>
+      </c>
+      <c r="B99" t="s">
         <v>730</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>731</v>
-      </c>
-      <c r="C99" t="s">
-        <v>732</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
+        <v>732</v>
+      </c>
+      <c r="G99" t="s">
+        <v>284</v>
+      </c>
+      <c r="H99" t="s">
         <v>733</v>
-      </c>
-      <c r="G99" t="s">
-        <v>285</v>
-      </c>
-      <c r="H99" t="s">
-        <v>734</v>
       </c>
       <c r="I99">
         <v>1.0509999999999999</v>
@@ -7752,19 +7778,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>734</v>
+      </c>
+      <c r="B100" t="s">
         <v>735</v>
       </c>
-      <c r="B100" t="s">
-        <v>736</v>
-      </c>
       <c r="C100" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I100">
         <v>1.0509999999999999</v>
@@ -7772,28 +7798,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>736</v>
+      </c>
+      <c r="B101" t="s">
         <v>737</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>738</v>
-      </c>
-      <c r="C101" t="s">
-        <v>739</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F101" t="s">
+        <v>739</v>
+      </c>
+      <c r="G101" t="s">
+        <v>284</v>
+      </c>
+      <c r="H101" t="s">
         <v>740</v>
-      </c>
-      <c r="G101" t="s">
-        <v>285</v>
-      </c>
-      <c r="H101" t="s">
-        <v>741</v>
       </c>
       <c r="I101">
         <v>1.2E-2</v>
@@ -7801,28 +7827,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" t="s">
         <v>742</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>743</v>
-      </c>
-      <c r="C102" t="s">
-        <v>744</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F102" t="s">
+        <v>744</v>
+      </c>
+      <c r="G102" t="s">
+        <v>284</v>
+      </c>
+      <c r="H102" t="s">
         <v>745</v>
-      </c>
-      <c r="G102" t="s">
-        <v>285</v>
-      </c>
-      <c r="H102" t="s">
-        <v>746</v>
       </c>
       <c r="I102">
         <v>7.3999999999999996E-2</v>
@@ -7830,28 +7856,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>746</v>
+      </c>
+      <c r="B103" t="s">
         <v>747</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>748</v>
-      </c>
-      <c r="C103" t="s">
-        <v>749</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F103" t="s">
+        <v>749</v>
+      </c>
+      <c r="G103" t="s">
+        <v>284</v>
+      </c>
+      <c r="H103" t="s">
         <v>750</v>
-      </c>
-      <c r="G103" t="s">
-        <v>285</v>
-      </c>
-      <c r="H103" t="s">
-        <v>751</v>
       </c>
       <c r="I103">
         <v>0.221</v>
@@ -7874,34 +7900,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7909,28 +7935,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J2">
         <v>0.16800000000000001</v>
@@ -7941,28 +7967,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J3">
         <v>0.14599999999999999</v>
@@ -7973,28 +7999,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J4">
         <v>2E-3</v>
@@ -8005,28 +8031,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" t="s">
         <v>568</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" t="s">
-        <v>569</v>
       </c>
       <c r="J5">
         <v>1.4770000000000001</v>
@@ -8037,28 +8063,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="s">
         <v>782</v>
-      </c>
-      <c r="G6" t="s">
-        <v>672</v>
-      </c>
-      <c r="H6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" t="s">
-        <v>783</v>
       </c>
       <c r="J6">
         <v>0.29399999999999998</v>
@@ -8069,28 +8095,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" t="s">
         <v>788</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>789</v>
-      </c>
-      <c r="D7" t="s">
-        <v>790</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" t="s">
         <v>791</v>
-      </c>
-      <c r="H7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" t="s">
-        <v>792</v>
       </c>
       <c r="J7">
         <v>0.54100000000000004</v>
@@ -8101,28 +8127,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J8">
         <v>2.3E-2</v>
@@ -8133,28 +8159,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J9">
         <v>0.108</v>
@@ -8165,28 +8191,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" t="s">
         <v>553</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" t="s">
         <v>554</v>
-      </c>
-      <c r="H10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I10" t="s">
-        <v>555</v>
       </c>
       <c r="J10">
         <v>6.0000000000000001E-3</v>
@@ -8197,28 +8223,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" t="s">
         <v>481</v>
-      </c>
-      <c r="G11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" t="s">
-        <v>482</v>
       </c>
       <c r="J11">
         <v>1E-3</v>
@@ -8229,22 +8255,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" t="s">
         <v>798</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>799</v>
-      </c>
-      <c r="D12" t="s">
-        <v>800</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J12">
         <v>4.2999999999999997E-2</v>
@@ -8255,22 +8281,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J13">
         <v>2.3E-2</v>
@@ -8281,28 +8307,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" t="s">
         <v>359</v>
-      </c>
-      <c r="H14" t="s">
-        <v>285</v>
-      </c>
-      <c r="I14" t="s">
-        <v>360</v>
       </c>
       <c r="J14">
         <v>2.1999999999999999E-2</v>
@@ -8313,28 +8339,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>804</v>
+      </c>
+      <c r="G15" t="s">
         <v>805</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" t="s">
         <v>806</v>
-      </c>
-      <c r="H15" t="s">
-        <v>285</v>
-      </c>
-      <c r="I15" t="s">
-        <v>807</v>
       </c>
       <c r="J15">
         <v>0.42399999999999999</v>
@@ -8345,28 +8371,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>657</v>
+      </c>
+      <c r="G16" t="s">
         <v>658</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" t="s">
         <v>659</v>
-      </c>
-      <c r="H16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I16" t="s">
-        <v>660</v>
       </c>
       <c r="J16">
         <v>0.108</v>
@@ -8377,28 +8403,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>527</v>
+      </c>
+      <c r="G17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" t="s">
         <v>528</v>
-      </c>
-      <c r="G17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" t="s">
-        <v>529</v>
       </c>
       <c r="J17">
         <v>4.0000000000000001E-3</v>
@@ -8409,28 +8435,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>662</v>
+      </c>
+      <c r="G18" t="s">
+        <v>379</v>
+      </c>
+      <c r="H18" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" t="s">
         <v>663</v>
-      </c>
-      <c r="G18" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" t="s">
-        <v>664</v>
       </c>
       <c r="J18">
         <v>3.0000000000000001E-3</v>
@@ -8441,28 +8467,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G19" t="s">
+        <v>471</v>
+      </c>
+      <c r="H19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" t="s">
         <v>472</v>
-      </c>
-      <c r="H19" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" t="s">
-        <v>473</v>
       </c>
       <c r="J19">
         <v>0.72199999999999998</v>
@@ -8473,28 +8499,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>678</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" t="s">
         <v>679</v>
-      </c>
-      <c r="G20" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I20" t="s">
-        <v>680</v>
       </c>
       <c r="J20">
         <v>2E-3</v>
@@ -8505,28 +8531,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" t="s">
         <v>676</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" t="s">
-        <v>677</v>
       </c>
       <c r="J21">
         <v>2E-3</v>
@@ -8537,28 +8563,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G22" t="s">
+        <v>687</v>
+      </c>
+      <c r="H22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" t="s">
         <v>688</v>
-      </c>
-      <c r="H22" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" t="s">
-        <v>689</v>
       </c>
       <c r="J22">
         <v>0.80600000000000005</v>
@@ -8569,28 +8595,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G23" t="s">
         <v>379</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I23" t="s">
         <v>380</v>
-      </c>
-      <c r="H23" t="s">
-        <v>285</v>
-      </c>
-      <c r="I23" t="s">
-        <v>381</v>
       </c>
       <c r="J23">
         <v>0.03</v>
@@ -8601,28 +8627,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" t="s">
+        <v>379</v>
+      </c>
+      <c r="H24" t="s">
+        <v>284</v>
+      </c>
+      <c r="I24" t="s">
         <v>414</v>
-      </c>
-      <c r="G24" t="s">
-        <v>380</v>
-      </c>
-      <c r="H24" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" t="s">
-        <v>415</v>
       </c>
       <c r="J24">
         <v>0.01</v>
@@ -8633,28 +8659,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
+        <v>666</v>
+      </c>
+      <c r="G25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" t="s">
         <v>667</v>
-      </c>
-      <c r="G25" t="s">
-        <v>380</v>
-      </c>
-      <c r="H25" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" t="s">
-        <v>668</v>
       </c>
       <c r="J25">
         <v>6.0000000000000001E-3</v>
@@ -8665,28 +8691,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
+        <v>511</v>
+      </c>
+      <c r="G26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" t="s">
         <v>512</v>
-      </c>
-      <c r="G26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" t="s">
-        <v>513</v>
       </c>
       <c r="J26">
         <v>1E-3</v>
@@ -8697,28 +8723,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>682</v>
+      </c>
+      <c r="G27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" t="s">
         <v>683</v>
-      </c>
-      <c r="G27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" t="s">
-        <v>285</v>
-      </c>
-      <c r="I27" t="s">
-        <v>684</v>
       </c>
       <c r="J27">
         <v>1E-3</v>
@@ -8729,28 +8755,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J28">
         <v>0.95899999999999996</v>
@@ -8761,28 +8787,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G29" t="s">
+        <v>697</v>
+      </c>
+      <c r="H29" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" t="s">
         <v>698</v>
-      </c>
-      <c r="H29" t="s">
-        <v>285</v>
-      </c>
-      <c r="I29" t="s">
-        <v>699</v>
       </c>
       <c r="J29">
         <v>0.53900000000000003</v>
@@ -8793,28 +8819,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G30" t="s">
+        <v>692</v>
+      </c>
+      <c r="H30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I30" t="s">
         <v>693</v>
-      </c>
-      <c r="H30" t="s">
-        <v>285</v>
-      </c>
-      <c r="I30" t="s">
-        <v>694</v>
       </c>
       <c r="J30">
         <v>1.034</v>
@@ -8825,28 +8851,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C31" t="s">
         <v>704</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>705</v>
-      </c>
-      <c r="D31" t="s">
-        <v>706</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G31" t="s">
+        <v>706</v>
+      </c>
+      <c r="H31" t="s">
+        <v>284</v>
+      </c>
+      <c r="I31" t="s">
         <v>707</v>
-      </c>
-      <c r="H31" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" t="s">
-        <v>708</v>
       </c>
       <c r="J31">
         <v>2.7090000000000001</v>
@@ -8857,28 +8883,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>818</v>
+      </c>
+      <c r="C32" t="s">
         <v>819</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>820</v>
-      </c>
-      <c r="D32" t="s">
-        <v>821</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
+        <v>821</v>
+      </c>
+      <c r="G32" t="s">
         <v>822</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>284</v>
+      </c>
+      <c r="I32" t="s">
         <v>823</v>
-      </c>
-      <c r="H32" t="s">
-        <v>285</v>
-      </c>
-      <c r="I32" t="s">
-        <v>824</v>
       </c>
       <c r="J32">
         <v>0.70399999999999996</v>
@@ -8889,28 +8915,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>824</v>
+      </c>
+      <c r="C33" t="s">
         <v>825</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>826</v>
-      </c>
-      <c r="D33" t="s">
-        <v>827</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G33" t="s">
+        <v>827</v>
+      </c>
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" t="s">
         <v>828</v>
-      </c>
-      <c r="H33" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" t="s">
-        <v>829</v>
       </c>
       <c r="J33">
         <v>1.5469999999999999</v>
@@ -8921,22 +8947,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>829</v>
+      </c>
+      <c r="C34" t="s">
         <v>830</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>831</v>
-      </c>
-      <c r="D34" t="s">
-        <v>832</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J34">
         <v>7.5999999999999998E-2</v>
@@ -8947,22 +8973,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>833</v>
+      </c>
+      <c r="C35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" t="s">
         <v>834</v>
-      </c>
-      <c r="C35" t="s">
-        <v>403</v>
-      </c>
-      <c r="D35" t="s">
-        <v>835</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J35">
         <v>7.6999999999999999E-2</v>
@@ -8973,22 +8999,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>836</v>
+      </c>
+      <c r="C36" t="s">
         <v>837</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>838</v>
-      </c>
-      <c r="D36" t="s">
-        <v>839</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J36">
         <v>3.1E-2</v>
@@ -8999,28 +9025,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
         <v>306</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" t="s">
         <v>307</v>
-      </c>
-      <c r="H37" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" t="s">
-        <v>308</v>
       </c>
       <c r="J37">
         <v>2E-3</v>
@@ -9031,28 +9057,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="s">
         <v>330</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>331</v>
-      </c>
-      <c r="D38" t="s">
-        <v>332</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
         <v>333</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>284</v>
+      </c>
+      <c r="I38" t="s">
         <v>334</v>
-      </c>
-      <c r="H38" t="s">
-        <v>285</v>
-      </c>
-      <c r="I38" t="s">
-        <v>335</v>
       </c>
       <c r="J38">
         <v>0.115</v>
@@ -9063,28 +9089,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>587</v>
+      </c>
+      <c r="C39" t="s">
         <v>588</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>589</v>
-      </c>
-      <c r="D39" t="s">
-        <v>590</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
+        <v>590</v>
+      </c>
+      <c r="G39" t="s">
         <v>591</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>284</v>
+      </c>
+      <c r="I39" t="s">
         <v>592</v>
-      </c>
-      <c r="H39" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" t="s">
-        <v>593</v>
       </c>
       <c r="J39">
         <v>1.4999999999999999E-2</v>
@@ -9095,28 +9121,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
+        <v>595</v>
+      </c>
+      <c r="G40" t="s">
+        <v>322</v>
+      </c>
+      <c r="H40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" t="s">
         <v>596</v>
-      </c>
-      <c r="G40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H40" t="s">
-        <v>285</v>
-      </c>
-      <c r="I40" t="s">
-        <v>597</v>
       </c>
       <c r="J40">
         <v>1E-3</v>
@@ -9127,28 +9153,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C41" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" t="s">
+        <v>548</v>
+      </c>
+      <c r="G41" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" t="s">
         <v>549</v>
-      </c>
-      <c r="G41" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" t="s">
-        <v>285</v>
-      </c>
-      <c r="I41" t="s">
-        <v>550</v>
       </c>
       <c r="J41">
         <v>1E-3</v>
@@ -9159,28 +9185,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C42" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
+        <v>557</v>
+      </c>
+      <c r="G42" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" t="s">
         <v>558</v>
-      </c>
-      <c r="G42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" t="s">
-        <v>285</v>
-      </c>
-      <c r="I42" t="s">
-        <v>559</v>
       </c>
       <c r="J42">
         <v>1E-3</v>
@@ -9191,28 +9217,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G43" t="s">
+        <v>562</v>
+      </c>
+      <c r="H43" t="s">
+        <v>284</v>
+      </c>
+      <c r="I43" t="s">
         <v>563</v>
-      </c>
-      <c r="H43" t="s">
-        <v>285</v>
-      </c>
-      <c r="I43" t="s">
-        <v>564</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -9223,28 +9249,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
+        <v>429</v>
+      </c>
+      <c r="G44" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" t="s">
+        <v>284</v>
+      </c>
+      <c r="I44" t="s">
         <v>430</v>
-      </c>
-      <c r="G44" t="s">
-        <v>307</v>
-      </c>
-      <c r="H44" t="s">
-        <v>285</v>
-      </c>
-      <c r="I44" t="s">
-        <v>431</v>
       </c>
       <c r="J44">
         <v>3.0000000000000001E-3</v>
@@ -9255,28 +9281,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" t="s">
+        <v>284</v>
+      </c>
+      <c r="I45" t="s">
         <v>410</v>
-      </c>
-      <c r="G45" t="s">
-        <v>307</v>
-      </c>
-      <c r="H45" t="s">
-        <v>285</v>
-      </c>
-      <c r="I45" t="s">
-        <v>411</v>
       </c>
       <c r="J45">
         <v>3.0000000000000001E-3</v>
@@ -9287,28 +9313,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" t="s">
+        <v>379</v>
+      </c>
+      <c r="H46" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" t="s">
         <v>426</v>
-      </c>
-      <c r="G46" t="s">
-        <v>380</v>
-      </c>
-      <c r="H46" t="s">
-        <v>285</v>
-      </c>
-      <c r="I46" t="s">
-        <v>427</v>
       </c>
       <c r="J46">
         <v>3.0000000000000001E-3</v>
@@ -9319,28 +9345,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
         <v>421</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>284</v>
+      </c>
+      <c r="I47" t="s">
         <v>422</v>
-      </c>
-      <c r="H47" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" t="s">
-        <v>423</v>
       </c>
       <c r="J47">
         <v>4.8000000000000001E-2</v>
@@ -9351,28 +9377,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C48" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" t="s">
         <v>417</v>
-      </c>
-      <c r="G48" t="s">
-        <v>380</v>
-      </c>
-      <c r="H48" t="s">
-        <v>285</v>
-      </c>
-      <c r="I48" t="s">
-        <v>418</v>
       </c>
       <c r="J48">
         <v>6.0000000000000001E-3</v>
@@ -9383,28 +9409,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
+        <v>353</v>
+      </c>
+      <c r="G49" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49" t="s">
         <v>354</v>
-      </c>
-      <c r="G49" t="s">
-        <v>307</v>
-      </c>
-      <c r="H49" t="s">
-        <v>285</v>
-      </c>
-      <c r="I49" t="s">
-        <v>355</v>
       </c>
       <c r="J49">
         <v>1E-3</v>
@@ -9415,28 +9441,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50">
         <v>8</v>
       </c>
       <c r="F50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" t="s">
         <v>296</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" t="s">
         <v>297</v>
-      </c>
-      <c r="H50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" t="s">
-        <v>298</v>
       </c>
       <c r="J50">
         <v>1E-3</v>
@@ -9447,28 +9473,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
+        <v>852</v>
+      </c>
+      <c r="G51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" t="s">
+        <v>284</v>
+      </c>
+      <c r="I51" t="s">
         <v>853</v>
-      </c>
-      <c r="G51" t="s">
-        <v>297</v>
-      </c>
-      <c r="H51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" t="s">
-        <v>854</v>
       </c>
       <c r="J51">
         <v>1E-3</v>
@@ -9479,28 +9505,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C52" t="s">
         <v>451</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>452</v>
-      </c>
-      <c r="D52" t="s">
-        <v>453</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
+        <v>453</v>
+      </c>
+      <c r="H52" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" t="s">
         <v>454</v>
-      </c>
-      <c r="H52" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" t="s">
-        <v>455</v>
       </c>
       <c r="J52">
         <v>0.45100000000000001</v>
@@ -9511,28 +9537,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" t="s">
         <v>373</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>284</v>
+      </c>
+      <c r="I53" t="s">
         <v>374</v>
-      </c>
-      <c r="H53" t="s">
-        <v>285</v>
-      </c>
-      <c r="I53" t="s">
-        <v>375</v>
       </c>
       <c r="J53">
         <v>6.8000000000000005E-2</v>
@@ -9543,28 +9569,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C54" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
         <v>448</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" t="s">
         <v>449</v>
-      </c>
-      <c r="H54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I54" t="s">
-        <v>450</v>
       </c>
       <c r="J54">
         <v>1E-3</v>
@@ -9575,28 +9601,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" t="s">
+        <v>284</v>
+      </c>
+      <c r="I55" t="s">
         <v>444</v>
-      </c>
-      <c r="G55" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" t="s">
-        <v>285</v>
-      </c>
-      <c r="I55" t="s">
-        <v>445</v>
       </c>
       <c r="J55">
         <v>1E-3</v>
@@ -9607,28 +9633,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C56" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>296</v>
+      </c>
+      <c r="H56" t="s">
+        <v>284</v>
+      </c>
+      <c r="I56" t="s">
         <v>440</v>
-      </c>
-      <c r="G56" t="s">
-        <v>297</v>
-      </c>
-      <c r="H56" t="s">
-        <v>285</v>
-      </c>
-      <c r="I56" t="s">
-        <v>441</v>
       </c>
       <c r="J56">
         <v>2E-3</v>
@@ -9639,28 +9665,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G57" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" t="s">
         <v>435</v>
-      </c>
-      <c r="G57" t="s">
-        <v>297</v>
-      </c>
-      <c r="H57" t="s">
-        <v>285</v>
-      </c>
-      <c r="I57" t="s">
-        <v>436</v>
       </c>
       <c r="J57">
         <v>2E-3</v>
@@ -9671,28 +9697,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G58" t="s">
+        <v>458</v>
+      </c>
+      <c r="H58" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" t="s">
         <v>459</v>
-      </c>
-      <c r="H58" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" t="s">
-        <v>460</v>
       </c>
       <c r="J58">
         <v>3.1880000000000002</v>
@@ -9703,28 +9729,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>860</v>
+      </c>
+      <c r="C59" t="s">
         <v>861</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>862</v>
-      </c>
-      <c r="D59" t="s">
-        <v>863</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J59">
         <v>0.58299999999999996</v>
@@ -9735,28 +9761,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" t="s">
         <v>382</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>383</v>
-      </c>
-      <c r="D60" t="s">
-        <v>384</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G60" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60" t="s">
+        <v>284</v>
+      </c>
+      <c r="I60" t="s">
         <v>385</v>
-      </c>
-      <c r="H60" t="s">
-        <v>285</v>
-      </c>
-      <c r="I60" t="s">
-        <v>386</v>
       </c>
       <c r="J60">
         <v>0.17799999999999999</v>
@@ -9767,28 +9793,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G61" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" t="s">
+        <v>284</v>
+      </c>
+      <c r="I61" t="s">
         <v>390</v>
-      </c>
-      <c r="H61" t="s">
-        <v>285</v>
-      </c>
-      <c r="I61" t="s">
-        <v>391</v>
       </c>
       <c r="J61">
         <v>2.996</v>
@@ -9799,28 +9825,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>865</v>
+      </c>
+      <c r="C62" t="s">
         <v>866</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>867</v>
-      </c>
-      <c r="D62" t="s">
-        <v>868</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
+        <v>868</v>
+      </c>
+      <c r="G62" t="s">
+        <v>723</v>
+      </c>
+      <c r="H62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62" t="s">
         <v>869</v>
-      </c>
-      <c r="G62" t="s">
-        <v>724</v>
-      </c>
-      <c r="H62" t="s">
-        <v>285</v>
-      </c>
-      <c r="I62" t="s">
-        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -9840,34 +9866,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9875,28 +9901,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2" t="s">
         <v>752</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>753</v>
-      </c>
-      <c r="D2" t="s">
-        <v>754</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" t="s">
         <v>755</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" t="s">
-        <v>756</v>
       </c>
       <c r="J2">
         <v>0.58099999999999996</v>
@@ -9907,28 +9933,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" t="s">
         <v>541</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>542</v>
-      </c>
-      <c r="D3" t="s">
-        <v>543</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G3" t="s">
         <v>544</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" t="s">
         <v>545</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" t="s">
-        <v>546</v>
       </c>
       <c r="J3">
         <v>8.5000000000000006E-2</v>
@@ -9939,22 +9965,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C4" t="s">
         <v>757</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>758</v>
-      </c>
-      <c r="D4" t="s">
-        <v>759</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J4">
         <v>3.2000000000000001E-2</v>
@@ -9965,28 +9991,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C5" t="s">
         <v>761</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>762</v>
-      </c>
-      <c r="D5" t="s">
-        <v>763</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J5">
         <v>0.14599999999999999</v>
@@ -9997,28 +10023,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" t="s">
         <v>765</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>766</v>
-      </c>
-      <c r="D6" t="s">
-        <v>767</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J6">
         <v>0.36299999999999999</v>
@@ -10029,28 +10055,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" t="s">
         <v>769</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>770</v>
-      </c>
-      <c r="D7" t="s">
-        <v>771</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J7">
         <v>0.35799999999999998</v>
@@ -10061,28 +10087,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C8" t="s">
         <v>773</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>774</v>
-      </c>
-      <c r="D8" t="s">
-        <v>775</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G8" t="s">
         <v>776</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" t="s">
         <v>777</v>
-      </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" t="s">
-        <v>778</v>
       </c>
       <c r="J8">
         <v>7.2999999999999995E-2</v>
@@ -10093,28 +10119,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C9" t="s">
         <v>779</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>780</v>
-      </c>
-      <c r="D9" t="s">
-        <v>781</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>781</v>
+      </c>
+      <c r="G9" t="s">
+        <v>671</v>
+      </c>
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" t="s">
         <v>782</v>
-      </c>
-      <c r="G9" t="s">
-        <v>672</v>
-      </c>
-      <c r="H9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" t="s">
-        <v>783</v>
       </c>
       <c r="J9">
         <v>0.29399999999999998</v>
